--- a/Pruebas/Sigma1.xlsx
+++ b/Pruebas/Sigma1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NP1"/>
+  <dimension ref="A1:ND1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1144 +423,1108 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>0.9301801399089716</v>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>0.8673452043236916</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>0.8761701805684576</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.8537975718246604</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7071067811865476</v>
+        <v>0.5834552786354215</v>
       </c>
       <c r="F1" t="n">
-        <v>0.697064248125706</v>
+        <v>0.5820329748149601</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6935563388456838</v>
+        <v>0.5812208904773882</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5699033708766703</v>
+        <v>0.5812111174548045</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5699032599064825</v>
+        <v>0.5227693627748095</v>
       </c>
       <c r="J1" t="n">
-        <v>0.569903259901385</v>
+        <v>0.5233726142737286</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5678297564654352</v>
+        <v>0.501379704766867</v>
       </c>
       <c r="L1" t="n">
-        <v>0.4937779555943767</v>
+        <v>0.5067172795256235</v>
       </c>
       <c r="M1" t="n">
-        <v>0.538786089120771</v>
+        <v>0.541367624938328</v>
       </c>
       <c r="N1" t="n">
-        <v>0.5387860888107764</v>
+        <v>0.4913060106972815</v>
       </c>
       <c r="O1" t="n">
-        <v>0.5250002121453169</v>
+        <v>0.4751556938654378</v>
       </c>
       <c r="P1" t="n">
-        <v>0.4648340462377353</v>
+        <v>0.4796759018408309</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6341361292842029</v>
+        <v>0.5226568002127794</v>
       </c>
       <c r="R1" t="n">
-        <v>0.6341361289572782</v>
+        <v>0.5245331957322062</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6003390985818534</v>
+        <v>0.4460867212909207</v>
       </c>
       <c r="T1" t="n">
-        <v>0.5147095123306147</v>
+        <v>0.4584835979106773</v>
       </c>
       <c r="U1" t="n">
-        <v>0.5960689452749566</v>
+        <v>0.5348476936293572</v>
       </c>
       <c r="V1" t="n">
-        <v>0.5960689447032432</v>
+        <v>0.5071292615832247</v>
       </c>
       <c r="W1" t="n">
-        <v>0.5627218946151947</v>
+        <v>0.4677031789225822</v>
       </c>
       <c r="X1" t="n">
-        <v>0.4904081322908641</v>
+        <v>0.4904803020661265</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.6362245318036593</v>
+        <v>0.4996498256130486</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6362244330119127</v>
+        <v>0.4514197320569499</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.6036138981139592</v>
+        <v>0.4577859929664811</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5167689067207648</v>
+        <v>0.4724559797808709</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.6050277528713061</v>
+        <v>0.4480434686929947</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.605027741670557</v>
+        <v>0.4583306347262602</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5687943855899487</v>
+        <v>0.4476906766404374</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4944118707642652</v>
+        <v>0.5005309258537116</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.577144351881245</v>
+        <v>0.4535753513098119</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.5771442050628286</v>
+        <v>0.4662563136792783</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.5441743257158672</v>
+        <v>0.4960073863217965</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.4779852414889918</v>
+        <v>0.4872463856325698</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.5627844813795343</v>
+        <v>0.4763739017487781</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.5627827836217427</v>
+        <v>0.4602741418943882</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.5229220203153339</v>
+        <v>0.4842952071844805</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.4633897447132259</v>
+        <v>0.4711707909689144</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.5512559583748248</v>
+        <v>0.4606976655385827</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.5512549503741399</v>
+        <v>0.4501790946062722</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.5154868773764356</v>
+        <v>0.4434238199987703</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.4581921451401543</v>
+        <v>0.4557535001243557</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.532849873782363</v>
+        <v>0.4168433144665852</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.5328369375507496</v>
+        <v>0.4448070677445276</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.4988488106775988</v>
+        <v>0.5483741900737035</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.446389302517423</v>
+        <v>0.4474272319398562</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.410073994360682</v>
+        <v>0.4068598299084928</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.409903209568812</v>
+        <v>0.4428553752136331</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.3964422775020492</v>
+        <v>0.5098629877802374</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.3685378009830222</v>
+        <v>0.4244731266078411</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.4304758659198726</v>
+        <v>0.3992327531819964</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.4304016535907306</v>
+        <v>0.4415645446953748</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.4088142012588745</v>
+        <v>0.4313224752092134</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.3784134238139766</v>
+        <v>0.4465702399882897</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.5141401495118407</v>
+        <v>0.3906534593032884</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.5138705671535967</v>
+        <v>0.4434341082659353</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.4661576310777052</v>
+        <v>0.4058748338697926</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.4225065666164822</v>
+        <v>0.446776712900559</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.5491974490175581</v>
+        <v>0.4156664605530843</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.5484840588899181</v>
+        <v>0.4435894163882534</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.4942785348587275</v>
+        <v>0.3985881546224809</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.4724008331525157</v>
+        <v>0.4722268639620266</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.5720805047614862</v>
+        <v>0.411266301656747</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.5683855240604427</v>
+        <v>0.4402970805252492</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.4962631633213061</v>
+        <v>0.445536854878683</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.4524723053770145</v>
+        <v>0.4857226680878532</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.5578608844785707</v>
+        <v>0.4080909609615648</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.5574036999299995</v>
+        <v>0.4347380864848058</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.4952671558206926</v>
+        <v>0.4374350494541261</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.4419067694459287</v>
+        <v>0.4709745620494891</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.5425003682123605</v>
+        <v>0.4072843995663942</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.5425426885771558</v>
+        <v>0.4267288550862599</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.4879998741096512</v>
+        <v>0.4343856291635546</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.4385442521106496</v>
+        <v>0.4555615173790578</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.5620637464351278</v>
+        <v>0.4215837355672027</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.5612629997741209</v>
+        <v>0.416935876651566</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.5024171299048108</v>
+        <v>0.4315184165435105</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.4493321044196464</v>
+        <v>0.4865670069513628</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.5183152941449991</v>
+        <v>0.382455939166135</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.5168175907151197</v>
+        <v>0.4068925218258865</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.4555204728615566</v>
+        <v>0.4200758377747952</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.414378546573395</v>
+        <v>0.4519979143413371</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.5267311696228613</v>
+        <v>0.3511467749528114</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.5254067950473976</v>
+        <v>0.3742744280978751</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.4720952989671183</v>
+        <v>0.442261441181548</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.4263120409559295</v>
+        <v>0.4594858677112501</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.491985100432306</v>
+        <v>0.3556355932214769</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.4907899236519365</v>
+        <v>0.3631469829805746</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.4453879292509204</v>
+        <v>0.439325569810814</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.4066459764926481</v>
+        <v>0.4483221943971041</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.4499043585200763</v>
+        <v>0.3287962511019009</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.4480290429699727</v>
+        <v>0.3570187052426868</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.4086182919233797</v>
+        <v>0.4227647408593549</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.3780709087999674</v>
+        <v>0.455906307662705</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.4327472672927719</v>
+        <v>0.3400209233306823</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.4316023477196136</v>
+        <v>0.3270013626427541</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.3938260190495241</v>
+        <v>0.4686334500582004</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.3663949869950058</v>
+        <v>0.4640055915233656</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.4034462402459224</v>
+        <v>0.3154227586666861</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.4023896847134665</v>
+        <v>0.314647728267263</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.372292576044398</v>
+        <v>0.4405211142589047</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.3487895516196057</v>
+        <v>0.4477635976966525</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.3824818312244483</v>
+        <v>0.3309804063353371</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.3804752611157394</v>
+        <v>0.3184277414959383</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.355200808903879</v>
+        <v>0.4271295094635808</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.3345386513244152</v>
+        <v>0.4398797000830729</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.3631671295683343</v>
+        <v>0.3090363339248638</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.3610974872915541</v>
+        <v>0.2853939122298634</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.3393531661834311</v>
+        <v>0.4326476475682424</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.3211448280867707</v>
+        <v>0.423894324857215</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.3625804499518102</v>
+        <v>0.2900163024345276</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.3543451665663579</v>
+        <v>0.2730386935595077</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.3310380394152012</v>
+        <v>0.4415445264666295</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.3140957476772793</v>
+        <v>0.437340017407527</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.3331157594334607</v>
+        <v>0.2732722528656457</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.3287074626876907</v>
+        <v>0.26303704533097</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.3100783655206183</v>
+        <v>0.437571580982817</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.296015710082602</v>
+        <v>0.4248312789881886</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.2943386860711048</v>
+        <v>0.2591967831726857</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.2918218439257472</v>
+        <v>0.2506987478361791</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.2789014585498292</v>
+        <v>0.464116157646516</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.2685555740092973</v>
+        <v>0.446206322003288</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.2660205150576715</v>
+        <v>0.2465652498102708</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.2644270075087224</v>
+        <v>0.2245344495697768</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.2544144191431386</v>
+        <v>0.4771063752399486</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.2464986945860164</v>
+        <v>0.4327625284903523</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.2550306272285948</v>
+        <v>0.235175967767559</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.2539613618724826</v>
+        <v>0.2181064718497263</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.2453693612726572</v>
+        <v>0.4636722205345752</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.2382382500994291</v>
+        <v>0.4203235705357364</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.2801374130580893</v>
+        <v>0.2384073020857067</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.2777415419039651</v>
+        <v>0.1986600416632921</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.2689749012823368</v>
+        <v>0.4703046395695425</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.2596675750848265</v>
+        <v>0.438596756914583</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.257173760991806</v>
+        <v>0.2282600598396149</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.2554552574841022</v>
+        <v>0.1932655565397081</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.2486248615857504</v>
+        <v>0.4544083383606795</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.2412268358754409</v>
+        <v>0.4250627868858902</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.2381566967978725</v>
+        <v>0.2195159723815841</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.236868302959095</v>
+        <v>0.1798145128098782</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.2283691292133432</v>
+        <v>0.485048543367376</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.2226031433425444</v>
+        <v>0.4117124476183955</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.2191387977675195</v>
+        <v>0.2114026167996604</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.2182105357835687</v>
+        <v>0.1760848083826126</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.2131655813238984</v>
+        <v>0.4709891048095729</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.2084574310968801</v>
+        <v>0.4068937939818972</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.22055004436497</v>
+        <v>0.2050582341028653</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.2174383935643605</v>
+        <v>0.1744042132568638</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.213325958756528</v>
+        <v>0.4625065450236772</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.2085995340370593</v>
+        <v>0.4014667317044486</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.2059378499719764</v>
+        <v>0.1989315469335653</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.2035375991427907</v>
+        <v>0.1700229420782935</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.199421848478481</v>
+        <v>0.4576085327981043</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.1955480210358131</v>
+        <v>0.3921044216732213</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.1754209474547131</v>
+        <v>0.1923583052358527</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.1742045831819668</v>
+        <v>0.1663228560758098</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.171865550896238</v>
+        <v>0.4694243961399773</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.1693599659915258</v>
+        <v>0.3849219788147381</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.1849339089069034</v>
+        <v>0.1863988198374567</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.1834162023841169</v>
+        <v>0.1633005248166993</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.1814465886031764</v>
+        <v>0.4382581102234751</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.1785166774358698</v>
+        <v>0.3741633784223792</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.1601760813974649</v>
+        <v>0.180979014575014</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.1590628602397507</v>
+        <v>0.1599928347141139</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.1572082500521385</v>
+        <v>0.4562574867911797</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.1552860284924544</v>
+        <v>0.3615074796948313</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.1847213810344055</v>
+        <v>0.1628801881237052</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.1834851136254978</v>
+        <v>0.1568961738358466</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.1811340095674066</v>
+        <v>0.4476691736854799</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.1782154853635675</v>
+        <v>0.3471162197045591</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.1535770634194521</v>
+        <v>0.1584080078517222</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.1520631289502635</v>
+        <v>0.1617047721808378</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.1502623836240125</v>
+        <v>0.4425450778625852</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.1485845680135394</v>
+        <v>0.3304219854844372</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.1476328712611311</v>
+        <v>0.1542911161541656</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.1460421245625768</v>
+        <v>0.158259683336001</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.144485302864249</v>
+        <v>0.4444118403162397</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.1429922523798818</v>
+        <v>0.3144531367026731</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.1418142367142202</v>
+        <v>0.1504173024952007</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.1404435316165982</v>
+        <v>0.1545660405355329</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.1390965352041144</v>
+        <v>0.4383723101951376</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.1377632963792367</v>
+        <v>0.2973384137527618</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.1367294046439468</v>
+        <v>0.1467976385735782</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.1357636937590975</v>
+        <v>0.1511674447333292</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.1345817960646199</v>
+        <v>0.4172911584432673</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.1333731479436749</v>
+        <v>0.2778439395267003</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.1324509298361041</v>
+        <v>0.143444828080001</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.1316294064798596</v>
+        <v>0.1477452194539818</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.1305825358321562</v>
+        <v>0.4371808461882064</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.1294776030044886</v>
+        <v>0.2611920583388151</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.1286482337051408</v>
+        <v>0.1402126680989909</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.1279422627925067</v>
+        <v>0.144491697957859</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.1269814134316162</v>
+        <v>0.4158739891243552</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.1259646284184683</v>
+        <v>0.2466005899056299</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.1415327372654402</v>
+        <v>0.1371807882602939</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.1406809355331011</v>
+        <v>0.161710197677015</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.1391211504376044</v>
+        <v>0.3968742400788585</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.1377890576418791</v>
+        <v>0.2353486458907379</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.1222758586572051</v>
+        <v>0.1545515174348377</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.1217653119375003</v>
+        <v>0.1575357738559953</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.121024282267611</v>
+        <v>0.3934545592392649</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.120142738441589</v>
+        <v>0.2219892727421397</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.1330190667777153</v>
+        <v>0.1360505384343592</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.1327311966606771</v>
+        <v>0.1489599302256125</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.1314390679740037</v>
+        <v>0.3741880639021915</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.1303144206400243</v>
+        <v>0.2133232113130146</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.1294259113931749</v>
+        <v>0.1515623455085987</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.128788717707277</v>
+        <v>0.1454965587210691</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.1276167032570132</v>
+        <v>0.3675337397655312</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.1265868584224085</v>
+        <v>0.2003915787725529</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.1257663499928186</v>
+        <v>0.1477575169327425</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.1255421616070689</v>
+        <v>0.1421609096279869</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.1238267512749831</v>
+        <v>0.3487691262454418</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.1228855858297029</v>
+        <v>0.196382594560085</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.1224864899177226</v>
+        <v>0.1402945096947587</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.1222838496009868</v>
+        <v>0.138835303573117</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.1207138202389031</v>
+        <v>0.3306040839521766</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.1198415605635044</v>
+        <v>0.1934357974061464</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.1194661759690715</v>
+        <v>0.1370396852286133</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.1192821918649771</v>
+        <v>0.1237114866514593</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.1178386999755491</v>
+        <v>0.3111964922642106</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.1170270277275731</v>
+        <v>0.180484128673387</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.1163636624827594</v>
+        <v>0.1338869245888869</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.1159331678014884</v>
+        <v>0.1210882701969444</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.1151033382139366</v>
+        <v>0.2927216979086664</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.1143466304866151</v>
+        <v>0.1651276741027759</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.1137237554497461</v>
+        <v>0.133221457808054</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.1133313623413645</v>
+        <v>0.1185655443825886</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.1125612109446269</v>
+        <v>0.2811567936681668</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.1118533195673131</v>
+        <v>0.1625823261290893</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.1112666190996485</v>
+        <v>0.1300408667987056</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.1109076527757808</v>
+        <v>0.1152657238820345</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.1101904715748945</v>
+        <v>0.2585486721160757</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.1095261809665829</v>
+        <v>0.1448072952603875</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.1089719764840185</v>
+        <v>0.1254332380452931</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.1086424950041428</v>
+        <v>0.1244063831961239</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.1080056788905331</v>
+        <v>0.2431981313306371</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.1073799604267508</v>
+        <v>0.1429314964218633</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.1067650201645981</v>
+        <v>0.1227595640592577</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.1066898121163449</v>
+        <v>0.12352993370685</v>
       </c>
       <c r="II1" t="n">
-        <v>0.1060865865582855</v>
+        <v>0.2297568538848279</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.1054935039880272</v>
+        <v>0.124446137556638</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.1049102826127621</v>
+        <v>0.1201613832700867</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.1048424261934071</v>
+        <v>0.1208179413604858</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.1042698788471596</v>
+        <v>0.2159885469579388</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.1037066325742114</v>
+        <v>0.1326427219991897</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.1161443007320568</v>
+        <v>0.1175887275886444</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.1158396004093528</v>
+        <v>0.1181277437802271</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.1153335816366329</v>
+        <v>0.2042478399571646</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1145717827766697</v>
+        <v>0.1301929643984896</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.1140839415741093</v>
+        <v>0.1150952574616956</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.1134156909757957</v>
+        <v>0.1156295300860671</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.1125436134728028</v>
+        <v>0.1944822958968381</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.1118355666242301</v>
+        <v>0.11966538686868</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.1113811498926749</v>
+        <v>0.1128733735834153</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.1107626923800752</v>
+        <v>0.1133337098738311</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.1103188698068218</v>
+        <v>0.186336540222646</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.1096518010958937</v>
+        <v>0.1179101600417941</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.1094122767005305</v>
+        <v>0.1118557569210692</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.1088327367821277</v>
+        <v>0.1111672341203845</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.1084114997855073</v>
+        <v>0.1833355676619843</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.1077782660231231</v>
+        <v>0.1161486273672738</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.1073705628244074</v>
+        <v>0.1097724002116864</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.1068297764909459</v>
+        <v>0.1091414160590745</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.1064307620642495</v>
+        <v>0.1762042245319361</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.1058314600604033</v>
+        <v>0.1143573212257318</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.1054448494409202</v>
+        <v>0.1073478564144233</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.1049389824228954</v>
+        <v>0.1071553699726176</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.1045602515752467</v>
+        <v>0.1689781694613539</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.1039918653133347</v>
+        <v>0.1006483673329284</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.1036245400632619</v>
+        <v>0.1056634338141561</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.1031502539147598</v>
+        <v>0.1052204811094598</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.1027901008409812</v>
+        <v>0.1666848408363006</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.1022499799039887</v>
+        <v>0.09924726813556421</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.09223664401834561</v>
+        <v>0.1040346544014162</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.09213677919604329</v>
+        <v>0.09855620068043539</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.09175948116101888</v>
+        <v>0.1584373712841132</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.09137507580345217</v>
+        <v>0.1024449231337713</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.1002640882586359</v>
+        <v>0.0996146609972899</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.09984455432468842</v>
+        <v>0.1015304833918355</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.09951720244935315</v>
+        <v>0.1564703268886412</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.09902685672616798</v>
+        <v>0.1006310051544678</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.08981146051531279</v>
+        <v>0.09862432105026356</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.08972912229638413</v>
+        <v>0.09979386281566327</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.08936959316290291</v>
+        <v>0.1463315479099835</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.0890143589182663</v>
+        <v>0.09891491377451855</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.09738627016525994</v>
+        <v>0.09763884265804366</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.09695683762403831</v>
+        <v>0.09466095163576584</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.09665602100966268</v>
+        <v>0.1447162974384052</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.09620658023105286</v>
+        <v>0.09725545928924034</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.09591362667261026</v>
+        <v>0.09664632356851884</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.09551781480319618</v>
+        <v>0.09349065113921677</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.09508398989782577</v>
+        <v>0.1433705475262407</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.09465604155562099</v>
+        <v>0.09577765234999616</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.09437461423380177</v>
+        <v>0.09562769490022426</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.09401338822611803</v>
+        <v>0.09509201915755483</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.09359966533982328</v>
+        <v>0.1421189380112433</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.0931913738719318</v>
+        <v>0.09182128910166769</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.09292064242578953</v>
+        <v>0.09153449168353775</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.09258988577953427</v>
+        <v>0.0937651970575669</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.09219460533632816</v>
+        <v>0.1297282286717102</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.09180436024429349</v>
+        <v>0.09071718556435523</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.09154358491788799</v>
+        <v>0.09358496841512765</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.09123979449026409</v>
+        <v>0.09249264956110033</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.09098200322176438</v>
+        <v>0.128635759553814</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.09060688982970241</v>
+        <v>0.08969531790584948</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.08582938918046053</v>
+        <v>0.09259344815016067</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.08558450225386109</v>
+        <v>0.09128517562720684</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.08544578774994625</v>
+        <v>0.1140176551583316</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.08513409104978151</v>
+        <v>0.08872888284141815</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.08960508367038765</v>
+        <v>0.09166411606001815</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.08952244922003316</v>
+        <v>0.08830372053623554</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.08888082888419364</v>
+        <v>0.1132535897078418</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.0885310291143294</v>
+        <v>0.08781432005249763</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.08829641288527014</v>
+        <v>0.09077052076823873</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.08803620978508174</v>
+        <v>0.08882951906570018</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.0878040501805432</v>
+        <v>0.1125680076672178</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.08746675968613826</v>
+        <v>0.08697272662975314</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.08375741778709173</v>
+        <v>0.0898791487853836</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.0835480890542365</v>
+        <v>0.08659677791698488</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.08342273268666764</v>
+        <v>0.1119382243739436</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.0831324368250803</v>
+        <v>0.0870535083157095</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.08666758917032409</v>
+        <v>0.08903815678313078</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.08644187092384729</v>
+        <v>0.08583822632379123</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.08622293976992344</v>
+        <v>0.09641202537920346</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.08590346252529467</v>
+        <v>0.08740400564183697</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.0799732946046799</v>
+        <v>0.08824308762879443</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.07993552434887931</v>
+        <v>0.08512823549087783</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.07970869810891007</v>
+        <v>0.09584590218821259</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.07945643561330516</v>
+        <v>0.0862155482734709</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.08192485676393534</v>
+        <v>0.08746507137824988</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.0817287033770021</v>
+        <v>0.08445417086064266</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.08161634439340532</v>
+        <v>0.09530149237968466</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.08134435665531443</v>
+        <v>0.08504976828695376</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.0785654508317308</v>
+        <v>0.08471272316778682</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.07853254400246219</v>
+        <v>0.08382499694305483</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.07829125759030559</v>
+        <v>0.09478281765814513</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.07805218441991672</v>
+        <v>0.08397009004754591</v>
       </c>
       <c r="MC1" t="n">
-        <v>0.087462445036866</v>
+        <v>0.08601104962042706</v>
       </c>
       <c r="MD1" t="n">
-        <v>0.08743787261601085</v>
+        <v>0.08317004886238673</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.08737062465749616</v>
+        <v>0.09422185161139335</v>
       </c>
       <c r="MF1" t="n">
-        <v>0.08703533748461095</v>
+        <v>0.08297525559305034</v>
       </c>
       <c r="MG1" t="n">
-        <v>0.07731684949723786</v>
+        <v>0.08526016177222556</v>
       </c>
       <c r="MH1" t="n">
-        <v>0.07731351628964042</v>
+        <v>0.08179993455363006</v>
       </c>
       <c r="MI1" t="n">
-        <v>0.07708326853695907</v>
+        <v>0.1091262706114015</v>
       </c>
       <c r="MJ1" t="n">
-        <v>0.07685506820988074</v>
+        <v>0.08479627120642441</v>
       </c>
       <c r="MK1" t="n">
-        <v>0.08606692898370784</v>
+        <v>0.08458260919666966</v>
       </c>
       <c r="ML1" t="n">
-        <v>0.08598444695688548</v>
+        <v>0.08094486989781219</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.08597452942431399</v>
+        <v>0.09327335681133345</v>
       </c>
       <c r="MN1" t="n">
-        <v>0.08565509578274133</v>
+        <v>0.08412553390973534</v>
       </c>
       <c r="MO1" t="n">
-        <v>0.08528210403494356</v>
+        <v>0.0839178994362199</v>
       </c>
       <c r="MP1" t="n">
-        <v>0.08526164970095078</v>
+        <v>0.0801009259964524</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.08515420051876101</v>
+        <v>0.09285472682504965</v>
       </c>
       <c r="MR1" t="n">
-        <v>0.08484387610129751</v>
+        <v>0.08350364754011252</v>
       </c>
       <c r="MS1" t="n">
-        <v>0.08453696692316477</v>
+        <v>0.08332091469178061</v>
       </c>
       <c r="MT1" t="n">
-        <v>0.08451757726400227</v>
+        <v>0.07929439990352569</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.08441364416236949</v>
+        <v>0.0924065954535654</v>
       </c>
       <c r="MV1" t="n">
-        <v>0.08411138908557377</v>
+        <v>0.08053907266141548</v>
       </c>
       <c r="MW1" t="n">
-        <v>0.08400959816002818</v>
+        <v>0.08274039496399545</v>
       </c>
       <c r="MX1" t="n">
-        <v>0.08399115043322634</v>
+        <v>0.07849656835189961</v>
       </c>
       <c r="MY1" t="n">
-        <v>0.08393566490260967</v>
+        <v>0.09200053690042859</v>
       </c>
       <c r="MZ1" t="n">
-        <v>0.08363851177929488</v>
+        <v>0.08001730009537519</v>
       </c>
       <c r="NA1" t="n">
-        <v>0.07463952932437212</v>
+        <v>0.07987683002437972</v>
       </c>
       <c r="NB1" t="n">
-        <v>0.07461564035040925</v>
+        <v>0.07768776421868351</v>
       </c>
       <c r="NC1" t="n">
-        <v>0.07443419012175631</v>
+        <v>0.09146263385246327</v>
       </c>
       <c r="ND1" t="n">
-        <v>0.07422866726062501</v>
-      </c>
-      <c r="NE1" t="n">
-        <v>0.07929644281525053</v>
-      </c>
-      <c r="NF1" t="n">
-        <v>0.07913634361024502</v>
-      </c>
-      <c r="NG1" t="n">
-        <v>0.07888909737675651</v>
-      </c>
-      <c r="NH1" t="n">
-        <v>0.0786441616644649</v>
-      </c>
-      <c r="NI1" t="n">
-        <v>0.07848247649746162</v>
-      </c>
-      <c r="NJ1" t="n">
-        <v>0.07832905803118459</v>
-      </c>
-      <c r="NK1" t="n">
-        <v>0.07816900652919799</v>
-      </c>
-      <c r="NL1" t="n">
-        <v>0.07793070111129334</v>
-      </c>
-      <c r="NM1" t="n">
-        <v>0.07777348116465826</v>
-      </c>
-      <c r="NN1" t="n">
-        <v>0.07762521381685485</v>
-      </c>
-      <c r="NO1" t="n">
-        <v>0.07746954884561415</v>
-      </c>
-      <c r="NP1" t="n">
-        <v>0.0772375684251112</v>
+        <v>0.07949884468037161</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Sigma1.xlsx
+++ b/Pruebas/Sigma1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ND1"/>
+  <dimension ref="A1:MV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1108 +423,1084 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9301801399089716</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="B1" t="n">
-        <v>0.8673452043236916</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="C1" t="n">
-        <v>0.8761701805684576</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8537975718246604</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="E1" t="n">
-        <v>0.5834552786354215</v>
+        <v>0.5773502691896258</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5820329748149601</v>
+        <v>0.5792557047988888</v>
       </c>
       <c r="G1" t="n">
-        <v>0.5812208904773882</v>
+        <v>0.577350262097018</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5812111174548045</v>
+        <v>0.5773502597327884</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5227693627748095</v>
+        <v>0.4999999999231222</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5233726142737286</v>
+        <v>0.5012360854375552</v>
       </c>
       <c r="K1" t="n">
-        <v>0.501379704766867</v>
+        <v>0.5036991567445758</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5067172795256235</v>
+        <v>0.4999999938390129</v>
       </c>
       <c r="M1" t="n">
-        <v>0.541367624938328</v>
+        <v>0.4575948417549735</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4913060106972815</v>
+        <v>0.475620088806274</v>
       </c>
       <c r="O1" t="n">
-        <v>0.4751556938654378</v>
+        <v>0.479978368102648</v>
       </c>
       <c r="P1" t="n">
-        <v>0.4796759018408309</v>
+        <v>0.4850534121719582</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5226568002127794</v>
+        <v>0.4868187548622409</v>
       </c>
       <c r="R1" t="n">
-        <v>0.5245331957322062</v>
+        <v>0.4646579163549238</v>
       </c>
       <c r="S1" t="n">
-        <v>0.4460867212909207</v>
+        <v>0.4690550139849893</v>
       </c>
       <c r="T1" t="n">
-        <v>0.4584835979106773</v>
+        <v>0.473833688198341</v>
       </c>
       <c r="U1" t="n">
-        <v>0.5348476936293572</v>
+        <v>0.4822217580720134</v>
       </c>
       <c r="V1" t="n">
-        <v>0.5071292615832247</v>
+        <v>0.4879802582079764</v>
       </c>
       <c r="W1" t="n">
-        <v>0.4677031789225822</v>
+        <v>0.4915268894422656</v>
       </c>
       <c r="X1" t="n">
-        <v>0.4904803020661265</v>
+        <v>0.4952845525947295</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.4996498256130486</v>
+        <v>0.5024574271591722</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.4514197320569499</v>
+        <v>0.4829593132441784</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.4577859929664811</v>
+        <v>0.5060242376797141</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.4724559797808709</v>
+        <v>0.5072188180872446</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4480434686929947</v>
+        <v>0.3900370216958686</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4583306347262602</v>
+        <v>0.4813322731465906</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4476906766404374</v>
+        <v>0.5123614252174934</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.5005309258537116</v>
+        <v>0.4922855105634821</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4535753513098119</v>
+        <v>0.3378163997077998</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.4662563136792783</v>
+        <v>0.4674864932130889</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.4960073863217965</v>
+        <v>0.4543832286673518</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.4872463856325698</v>
+        <v>0.4802353890436636</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.4763739017487781</v>
+        <v>0.31448221568678</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.4602741418943882</v>
+        <v>0.482594875125105</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.4842952071844805</v>
+        <v>0.3858774831022058</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.4711707909689144</v>
+        <v>0.5112355112501467</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.4606976655385827</v>
+        <v>0.312493370133403</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.4501790946062722</v>
+        <v>0.4618191801875468</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.4434238199987703</v>
+        <v>0.3600045822739766</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.4557535001243557</v>
+        <v>0.4551988655708861</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.4168433144665852</v>
+        <v>0.3260938966427713</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.4448070677445276</v>
+        <v>0.4842043725060279</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.5483741900737035</v>
+        <v>0.3671268964172928</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.4474272319398562</v>
+        <v>0.4935448248591497</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.4068598299084928</v>
+        <v>0.3477485607196211</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.4428553752136331</v>
+        <v>0.4784231684564095</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.5098629877802374</v>
+        <v>0.4310360073029139</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.4244731266078411</v>
+        <v>0.4828029715559067</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.3992327531819964</v>
+        <v>0.3883087205502899</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.4415645446953748</v>
+        <v>0.5130039994593872</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.4313224752092134</v>
+        <v>0.4447097986468927</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.4465702399882897</v>
+        <v>0.4971744298147705</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.3906534593032884</v>
+        <v>0.3619571821670481</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.4434341082659353</v>
+        <v>0.4564377897344247</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.4058748338697926</v>
+        <v>0.5485227212690192</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.446776712900559</v>
+        <v>0.4638155353166898</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.4156664605530843</v>
+        <v>0.4396457105913426</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.4435894163882534</v>
+        <v>0.453260908773483</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.3985881546224809</v>
+        <v>0.483016646710315</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.4722268639620266</v>
+        <v>0.4604615133378677</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.411266301656747</v>
+        <v>0.4573781638514024</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.4402970805252492</v>
+        <v>0.4748977948616626</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.445536854878683</v>
+        <v>0.4477973465651483</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.4857226680878532</v>
+        <v>0.4816354955201631</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.4080909609615648</v>
+        <v>0.4648379414421013</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.4347380864848058</v>
+        <v>0.4691824112363037</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.4374350494541261</v>
+        <v>0.4622201136031531</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.4709745620494891</v>
+        <v>0.4751429745946879</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.4072843995663942</v>
+        <v>0.4469925585258042</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.4267288550862599</v>
+        <v>0.4861883230138666</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.4343856291635546</v>
+        <v>0.4633498310167057</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.4555615173790578</v>
+        <v>0.49195058640303</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.4215837355672027</v>
+        <v>0.4491219352150603</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.416935876651566</v>
+        <v>0.4910253540510735</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.4315184165435105</v>
+        <v>0.4578907453234322</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.4865670069513628</v>
+        <v>0.4813767913701247</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.382455939166135</v>
+        <v>0.4347026222196422</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.4068925218258865</v>
+        <v>0.4932465861108924</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.4200758377747952</v>
+        <v>0.4741840364191315</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.4519979143413371</v>
+        <v>0.5119167054740137</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.3511467749528114</v>
+        <v>0.4265510123448925</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.3742744280978751</v>
+        <v>0.4712237352325321</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.442261441181548</v>
+        <v>0.4635984197149675</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.4594858677112501</v>
+        <v>0.4921502886848966</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.3556355932214769</v>
+        <v>0.4565595594784219</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.3631469829805746</v>
+        <v>0.459429025391934</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.439325569810814</v>
+        <v>0.4603771148476058</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.4483221943971041</v>
+        <v>0.4945604680220959</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.3287962511019009</v>
+        <v>0.3828005822815584</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.3570187052426868</v>
+        <v>0.4054498722084556</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.4227647408593549</v>
+        <v>0.4413658263887134</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.455906307662705</v>
+        <v>0.460954330485168</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.3400209233306823</v>
+        <v>0.3403367156445111</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.3270013626427541</v>
+        <v>0.3857849979260647</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.4686334500582004</v>
+        <v>0.4705748138075989</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.4640055915233656</v>
+        <v>0.4873273260666517</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.3154227586666861</v>
+        <v>0.3330616520852384</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.314647728267263</v>
+        <v>0.3550975224420919</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.4405211142589047</v>
+        <v>0.4565073181533438</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.4477635976966525</v>
+        <v>0.4707492188071598</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.3309804063353371</v>
+        <v>0.3298618706704679</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.3184277414959383</v>
+        <v>0.3502241252204097</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.4271295094635808</v>
+        <v>0.4419135298332139</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.4398797000830729</v>
+        <v>0.4573074470154105</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.3090363339248638</v>
+        <v>0.344646247039523</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.2853939122298634</v>
+        <v>0.3393479922782817</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.4326476475682424</v>
+        <v>0.4508203833946735</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.423894324857215</v>
+        <v>0.4466965440482394</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.2900163024345276</v>
+        <v>0.3617879410776255</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.2730386935595077</v>
+        <v>0.3240336127932927</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.4415445264666295</v>
+        <v>0.4299077949013037</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.437340017407527</v>
+        <v>0.4386697742192764</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.2732722528656457</v>
+        <v>0.3831011229964174</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.26303704533097</v>
+        <v>0.3260413429822557</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.437571580982817</v>
+        <v>0.4719545520231516</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.4248312789881886</v>
+        <v>0.464992194187629</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.2591967831726857</v>
+        <v>0.395393955352518</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.2506987478361791</v>
+        <v>0.3161499306199018</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.464116157646516</v>
+        <v>0.471779061232366</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.446206322003288</v>
+        <v>0.4521688047501763</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.2465652498102708</v>
+        <v>0.2912266011367711</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.2245344495697768</v>
+        <v>0.2916480305167847</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.4771063752399486</v>
+        <v>0.4128152226437414</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.4327625284903523</v>
+        <v>0.3845687346280802</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.235175967767559</v>
+        <v>0.2575972652449688</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.2181064718497263</v>
+        <v>0.2737950797727389</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.4636722205345752</v>
+        <v>0.3793315586042945</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.4203235705357364</v>
+        <v>0.3385039794205008</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.2384073020857067</v>
+        <v>0.2434624437593768</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.1986600416632921</v>
+        <v>0.264272745669185</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.4703046395695425</v>
+        <v>0.3655154914326789</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.438596756914583</v>
+        <v>0.3112976058245728</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.2282600598396149</v>
+        <v>0.2391341325528308</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.1932655565397081</v>
+        <v>0.266159984047901</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.4544083383606795</v>
+        <v>0.3656410745755573</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.4250627868858902</v>
+        <v>0.2962383118293863</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.2195159723815841</v>
+        <v>0.238454481792687</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.1798145128098782</v>
+        <v>0.2856232929076011</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.485048543367376</v>
+        <v>0.3735879894469589</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.4117124476183955</v>
+        <v>0.2840062897728906</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.2114026167996604</v>
+        <v>0.2538119786063004</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.1760848083826126</v>
+        <v>0.2904722507796458</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.4709891048095729</v>
+        <v>0.3499634618000908</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.4068937939818972</v>
+        <v>0.2810107581316105</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.2050582341028653</v>
+        <v>0.2580042165493182</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.1744042132568638</v>
+        <v>0.3118050166974589</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.4625065450236772</v>
+        <v>0.3637135598480796</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.4014667317044486</v>
+        <v>0.2803491332019311</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.1989315469335653</v>
+        <v>0.2839972816320772</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.1700229420782935</v>
+        <v>0.3063996528447839</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.4576085327981043</v>
+        <v>0.3770502385374456</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.3921044216732213</v>
+        <v>0.2726244632172681</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.1923583052358527</v>
+        <v>0.2860906730814767</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.1663228560758098</v>
+        <v>0.3005728248515883</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.4694243961399773</v>
+        <v>0.3874280002331555</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.3849219788147381</v>
+        <v>0.2769439075928292</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.1863988198374567</v>
+        <v>0.2702985999585565</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.1633005248166993</v>
+        <v>0.3084303907314114</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.4382581102234751</v>
+        <v>0.3938922420764218</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.3741633784223792</v>
+        <v>0.2797488716323507</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.180979014575014</v>
+        <v>0.3013666669238281</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.1599928347141139</v>
+        <v>0.3010370261912793</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.4562574867911797</v>
+        <v>0.3677985895782406</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.3615074796948313</v>
+        <v>0.289913032921248</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.1628801881237052</v>
+        <v>0.2953142523573512</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.1568961738358466</v>
+        <v>0.295831447629024</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.4476691736854799</v>
+        <v>0.3707782110671661</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.3471162197045591</v>
+        <v>0.2719034043692951</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.1584080078517222</v>
+        <v>0.2699712578282926</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.1617047721808378</v>
+        <v>0.3165330068791622</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.4425450778625852</v>
+        <v>0.3724348263119496</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.3304219854844372</v>
+        <v>0.2797573419623307</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.1542911161541656</v>
+        <v>0.294856203020113</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.158259683336001</v>
+        <v>0.3053366032143472</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.4444118403162397</v>
+        <v>0.3488243711453529</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.3144531367026731</v>
+        <v>0.29105416810747</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.1504173024952007</v>
+        <v>0.2855204723749221</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.1545660405355329</v>
+        <v>0.2956194144570906</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.4383723101951376</v>
+        <v>0.3520403819503792</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.2973384137527618</v>
+        <v>0.2882207266126023</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.1467976385735782</v>
+        <v>0.2769218241617766</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.1511674447333292</v>
+        <v>0.2824240856998076</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.4172911584432673</v>
+        <v>0.3316277801295965</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.2778439395267003</v>
+        <v>0.2764801158741736</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.143444828080001</v>
+        <v>0.2979829845093829</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.1477452194539818</v>
+        <v>0.2782076433610959</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.4371808461882064</v>
+        <v>0.3144527633902613</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.2611920583388151</v>
+        <v>0.2844410286859047</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.1402126680989909</v>
+        <v>0.2700105022426023</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.144491697957859</v>
+        <v>0.291089794949275</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.4158739891243552</v>
+        <v>0.299434241423398</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.2466005899056299</v>
+        <v>0.2899702466308541</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.1371807882602939</v>
+        <v>0.2613731748982268</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.161710197677015</v>
+        <v>0.2855604440346136</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.3968742400788585</v>
+        <v>0.3073414125970932</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.2353486458907379</v>
+        <v>0.268231667929999</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.1545515174348377</v>
+        <v>0.2522753825271738</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.1575357738559953</v>
+        <v>0.2888392381746914</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.3934545592392649</v>
+        <v>0.2846537634968695</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.2219892727421397</v>
+        <v>0.2698137468233861</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.1360505384343592</v>
+        <v>0.2567556463597111</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.1489599302256125</v>
+        <v>0.2972179424249863</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.3741880639021915</v>
+        <v>0.2719875096480878</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.2133232113130146</v>
+        <v>0.258659902718447</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.1515623455085987</v>
+        <v>0.2503956417729329</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.1454965587210691</v>
+        <v>0.3096890157897177</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.3675337397655312</v>
+        <v>0.2610494982130582</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.2003915787725529</v>
+        <v>0.2488103165628446</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.1477575169327425</v>
+        <v>0.2417530037183635</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.1421609096279869</v>
+        <v>0.2927989304297057</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.3487691262454418</v>
+        <v>0.2514637800971343</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.196382594560085</v>
+        <v>0.248131358291649</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.1402945096947587</v>
+        <v>0.2374371152833991</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.138835303573117</v>
+        <v>0.3071872919962284</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.3306040839521766</v>
+        <v>0.242351368958986</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.1934357974061464</v>
+        <v>0.2390523410107044</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.1370396852286133</v>
+        <v>0.2389274298871651</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.1237114866514593</v>
+        <v>0.2836712425625877</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.3111964922642106</v>
+        <v>0.2342900250915876</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.180484128673387</v>
+        <v>0.2355394052038745</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.1338869245888869</v>
+        <v>0.2456426397635708</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.1210882701969444</v>
+        <v>0.2600772589893753</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.2927216979086664</v>
+        <v>0.2445789685611819</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.1651276741027759</v>
+        <v>0.2273949050354393</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.133221457808054</v>
+        <v>0.227952444748999</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.1185655443825886</v>
+        <v>0.2739939858293514</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.2811567936681668</v>
+        <v>0.2363070169656171</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.1625823261290893</v>
+        <v>0.2210391242768567</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.1300408667987056</v>
+        <v>0.2371726525240564</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.1152657238820345</v>
+        <v>0.2494990858990384</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.2585486721160757</v>
+        <v>0.2283118965589047</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.1448072952603875</v>
+        <v>0.2138435327038249</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.1254332380452931</v>
+        <v>0.249792491157753</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.1244063831961239</v>
+        <v>0.2273711180685593</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.2431981313306371</v>
+        <v>0.2211722459570165</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.1429314964218633</v>
+        <v>0.2053257795030758</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.1227595640592577</v>
+        <v>0.2368665085510382</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.12352993370685</v>
+        <v>0.2401167473967416</v>
       </c>
       <c r="II1" t="n">
-        <v>0.2297568538848279</v>
+        <v>0.2141348204122548</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.124446137556638</v>
+        <v>0.1990620346177617</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.1201613832700867</v>
+        <v>0.2174299580335466</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.1208179413604858</v>
+        <v>0.220908677788086</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.2159885469579388</v>
+        <v>0.2078045285307781</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.1326427219991897</v>
+        <v>0.1934915120240488</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.1175887275886444</v>
+        <v>0.2014315478574267</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.1181277437802271</v>
+        <v>0.2059407151166492</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.2042478399571646</v>
+        <v>0.2020657816899915</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1301929643984896</v>
+        <v>0.1843242554773796</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.1150952574616956</v>
+        <v>0.2153402798241248</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.1156295300860671</v>
+        <v>0.1976931666605876</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.1944822958968381</v>
+        <v>0.1962796738607262</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.11966538686868</v>
+        <v>0.1793424607734399</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.1128733735834153</v>
+        <v>0.199397987925738</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.1133337098738311</v>
+        <v>0.1874225964491799</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.186336540222646</v>
+        <v>0.1910054253127726</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.1179101600417941</v>
+        <v>0.1748546596120212</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.1118557569210692</v>
+        <v>0.1871167297922543</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.1111672341203845</v>
+        <v>0.1811038541854331</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.1833355676619843</v>
+        <v>0.1861696777203241</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.1161486273672738</v>
+        <v>0.1707678593574891</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.1097724002116864</v>
+        <v>0.1783702641392087</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.1091414160590745</v>
+        <v>0.1755256328782927</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.1762042245319361</v>
+        <v>0.1817180360540033</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.1143573212257318</v>
+        <v>0.1631953592885906</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.1073478564144233</v>
+        <v>0.1728560155193265</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.1071553699726176</v>
+        <v>0.1830827692979393</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.1689781694613539</v>
+        <v>0.1771046360128722</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.1006483673329284</v>
+        <v>0.1593226103883368</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.1056634338141561</v>
+        <v>0.1677790313464733</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.1052204811094598</v>
+        <v>0.1767612036727902</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.1666848408363006</v>
+        <v>0.1975964843109718</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.09924726813556421</v>
+        <v>0.167848309904645</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.1040346544014162</v>
+        <v>0.1658910651744926</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.09855620068043539</v>
+        <v>0.1719093102085776</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.1584373712841132</v>
+        <v>0.16807604606618</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.1024449231337713</v>
+        <v>0.1638906092226957</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.0996146609972899</v>
+        <v>0.1615207232480584</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.1015304833918355</v>
+        <v>0.1688877633420829</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.1564703268886412</v>
+        <v>0.1641903137621014</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.1006310051544678</v>
+        <v>0.1601774028602006</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.09862432105026356</v>
+        <v>0.1626396711956923</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.09979386281566327</v>
+        <v>0.1677553048072359</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.1463315479099835</v>
+        <v>0.1605881046748787</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.09891491377451855</v>
+        <v>0.1621968855363624</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.09763884265804366</v>
+        <v>0.165534150058481</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.09466095163576584</v>
+        <v>0.1634620562495387</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.1447162974384052</v>
+        <v>0.1567617237264156</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.09725545928924034</v>
+        <v>0.1584169002579773</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.09664632356851884</v>
+        <v>0.1614145838592231</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.09349065113921677</v>
+        <v>0.1634607433546353</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.1433705475262407</v>
+        <v>0.1532094104978999</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.09577765234999616</v>
+        <v>0.1401720834816762</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.09562769490022426</v>
+        <v>0.1649908648764304</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.09509201915755483</v>
+        <v>0.1593556822026205</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.1421189380112433</v>
+        <v>0.1501312529103202</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.09182128910166769</v>
+        <v>0.1373360876217692</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.09153449168353775</v>
+        <v>0.1680776156190554</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.0937651970575669</v>
+        <v>0.1553909069326695</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.1297282286717102</v>
+        <v>0.147240517554481</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.09071718556435523</v>
+        <v>0.134630904072261</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.09358496841512765</v>
+        <v>0.1534923742929865</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.09249264956110033</v>
+        <v>0.1552253893035144</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.128635759553814</v>
+        <v>0.1445111239778844</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.08969531790584948</v>
+        <v>0.1320114091837907</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.09259344815016067</v>
+        <v>0.1532758819263644</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.09128517562720684</v>
+        <v>0.1515065050736827</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.1140176551583316</v>
+        <v>0.1419303760823599</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.08872888284141815</v>
+        <v>0.1294815777119284</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.09166411606001815</v>
+        <v>0.1519472573168583</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.08830372053623554</v>
+        <v>0.148049757322558</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.1132535897078418</v>
+        <v>0.1394733220117368</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.08781432005249763</v>
+        <v>0.1270094853091125</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.09077052076823873</v>
+        <v>0.148477041604605</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.08882951906570018</v>
+        <v>0.1468669936297534</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.1125680076672178</v>
+        <v>0.1371343813443682</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.08697272662975314</v>
+        <v>0.1395389430082278</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.0898791487853836</v>
+        <v>0.14529714598784</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.08659677791698488</v>
+        <v>0.1437234520445302</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.1119382243739436</v>
+        <v>0.1347157123134119</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.0870535083157095</v>
+        <v>0.1518935316017808</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.08903815678313078</v>
+        <v>0.1423045915640774</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.08583822632379123</v>
+        <v>0.1408852361923029</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.09641202537920346</v>
+        <v>0.1320581726692903</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.08740400564183697</v>
+        <v>0.1309215131406851</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.08824308762879443</v>
+        <v>0.1394348452407797</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.08512823549087783</v>
+        <v>0.1380988435326824</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.09584590218821259</v>
+        <v>0.1297407710622191</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.0862155482734709</v>
+        <v>0.1286624240759009</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.08746507137824988</v>
+        <v>0.1342763228896601</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.08445417086064266</v>
+        <v>0.1330819401579683</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.09530149237968466</v>
+        <v>0.1274404096691347</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.08504976828695376</v>
+        <v>0.1445239273548299</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.08471272316778682</v>
+        <v>0.1317880365562876</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.08382499694305483</v>
+        <v>0.1306582787241152</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.09478281765814513</v>
+        <v>0.1136220595139827</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.08397009004754591</v>
+        <v>0.124405080913895</v>
       </c>
       <c r="MC1" t="n">
-        <v>0.08601104962042706</v>
+        <v>0.124172310280973</v>
       </c>
       <c r="MD1" t="n">
-        <v>0.08317004886238673</v>
+        <v>0.1271444628250385</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.09422185161139335</v>
+        <v>0.1113265758429898</v>
       </c>
       <c r="MF1" t="n">
-        <v>0.08297525559305034</v>
+        <v>0.1224593747398016</v>
       </c>
       <c r="MG1" t="n">
-        <v>0.08526016177222556</v>
+        <v>0.1219141400859923</v>
       </c>
       <c r="MH1" t="n">
-        <v>0.08179993455363006</v>
+        <v>0.1248255585771174</v>
       </c>
       <c r="MI1" t="n">
-        <v>0.1091262706114015</v>
+        <v>0.1091770267185644</v>
       </c>
       <c r="MJ1" t="n">
-        <v>0.08479627120642441</v>
+        <v>0.1206289050889837</v>
       </c>
       <c r="MK1" t="n">
-        <v>0.08458260919666966</v>
+        <v>0.1197963796863952</v>
       </c>
       <c r="ML1" t="n">
-        <v>0.08094486989781219</v>
+        <v>0.1226496517815232</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.09327335681133345</v>
+        <v>0.1071583699638525</v>
       </c>
       <c r="MN1" t="n">
-        <v>0.08412553390973534</v>
+        <v>0.1189018255006324</v>
       </c>
       <c r="MO1" t="n">
-        <v>0.0839178994362199</v>
+        <v>0.1178047523009495</v>
       </c>
       <c r="MP1" t="n">
-        <v>0.0801009259964524</v>
+        <v>0.1169957186313693</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.09285472682504965</v>
+        <v>0.1052777788242154</v>
       </c>
       <c r="MR1" t="n">
-        <v>0.08350364754011252</v>
+        <v>0.1431375431571002</v>
       </c>
       <c r="MS1" t="n">
-        <v>0.08332091469178061</v>
+        <v>0.1089851137259245</v>
       </c>
       <c r="MT1" t="n">
-        <v>0.07929439990352569</v>
+        <v>0.1190453056907378</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.0924065954535654</v>
+        <v>0.1159055024914751</v>
       </c>
       <c r="MV1" t="n">
-        <v>0.08053907266141548</v>
-      </c>
-      <c r="MW1" t="n">
-        <v>0.08274039496399545</v>
-      </c>
-      <c r="MX1" t="n">
-        <v>0.07849656835189961</v>
-      </c>
-      <c r="MY1" t="n">
-        <v>0.09200053690042859</v>
-      </c>
-      <c r="MZ1" t="n">
-        <v>0.08001730009537519</v>
-      </c>
-      <c r="NA1" t="n">
-        <v>0.07987683002437972</v>
-      </c>
-      <c r="NB1" t="n">
-        <v>0.07768776421868351</v>
-      </c>
-      <c r="NC1" t="n">
-        <v>0.09146263385246327</v>
-      </c>
-      <c r="ND1" t="n">
-        <v>0.07949884468037161</v>
+        <v>0.1151347177307498</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Sigma1.xlsx
+++ b/Pruebas/Sigma1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MV1"/>
+  <dimension ref="A1:MB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,1069 +438,1009 @@
         <v>0.5773502691896258</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5792557047988888</v>
+        <v>0.5773502691896258</v>
       </c>
       <c r="G1" t="n">
-        <v>0.577350262097018</v>
+        <v>0.5773502691896258</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5773502597327884</v>
+        <v>0.579255703344528</v>
       </c>
       <c r="I1" t="n">
-        <v>0.4999999999231222</v>
+        <v>0.4999999999835067</v>
       </c>
       <c r="J1" t="n">
-        <v>0.5012360854375552</v>
+        <v>0.499999999981404</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5036991567445758</v>
+        <v>0.4999999973588232</v>
       </c>
       <c r="L1" t="n">
-        <v>0.4999999938390129</v>
+        <v>0.5012360843774712</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4575948417549735</v>
+        <v>0.4575948424714977</v>
       </c>
       <c r="N1" t="n">
-        <v>0.475620088806274</v>
+        <v>0.4472135954742892</v>
       </c>
       <c r="O1" t="n">
-        <v>0.479978368102648</v>
+        <v>0.4719579114643228</v>
       </c>
       <c r="P1" t="n">
-        <v>0.4850534121719582</v>
+        <v>0.4756200498733197</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.4868187548622409</v>
+        <v>0.4868187693294627</v>
       </c>
       <c r="R1" t="n">
-        <v>0.4646579163549238</v>
+        <v>0.4082482903120389</v>
       </c>
       <c r="S1" t="n">
-        <v>0.4690550139849893</v>
+        <v>0.4806264978237823</v>
       </c>
       <c r="T1" t="n">
-        <v>0.473833688198341</v>
+        <v>0.4646577195023277</v>
       </c>
       <c r="U1" t="n">
-        <v>0.4822217580720134</v>
+        <v>0.4822218227366177</v>
       </c>
       <c r="V1" t="n">
-        <v>0.4879802582079764</v>
+        <v>0.3779644726569307</v>
       </c>
       <c r="W1" t="n">
-        <v>0.4915268894422656</v>
+        <v>0.4770054766202866</v>
       </c>
       <c r="X1" t="n">
-        <v>0.4952845525947295</v>
+        <v>0.4879804196810921</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.5024574271591722</v>
+        <v>0.5024580052664372</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.4829593132441784</v>
+        <v>0.3535533898828768</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.5060242376797141</v>
+        <v>0.4984262724175482</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5072188180872446</v>
+        <v>0.5049224668640017</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.3900370216958686</v>
+        <v>0.5094289918198516</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4813322731465906</v>
+        <v>0.3333333306460431</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5123614252174934</v>
+        <v>0.5079290954620834</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4922855105634821</v>
+        <v>0.5122982404981425</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3378163997077998</v>
+        <v>0.4764549434422112</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.4674864932130889</v>
+        <v>0.3162277603731376</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.4543832286673518</v>
+        <v>0.5110510893693884</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.4802353890436636</v>
+        <v>0.5126318221241358</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.31448221568678</v>
+        <v>0.4838633105911925</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.482594875125105</v>
+        <v>0.3015113246318724</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3858774831022058</v>
+        <v>0.5105130190563837</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.5112355112501467</v>
+        <v>0.5112893692408783</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.312493370133403</v>
+        <v>0.4642819050887552</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.4618191801875468</v>
+        <v>0.2886750933479784</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.3600045822739766</v>
+        <v>0.4960739389659893</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.4551988655708861</v>
+        <v>0.4735125481825132</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.3260938966427713</v>
+        <v>0.4503984834466995</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.4842043725060279</v>
+        <v>0.2773500239710295</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.3671268964172928</v>
+        <v>0.4291122162122794</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.4935448248591497</v>
+        <v>0.4849771804551</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.3477485607196211</v>
+        <v>0.4406013235515157</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.4784231684564095</v>
+        <v>0.2672611078622806</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.4310360073029139</v>
+        <v>0.4394168652084426</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.4828029715559067</v>
+        <v>0.4966697019426468</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.3883087205502899</v>
+        <v>0.4657708911805435</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.5130039994593872</v>
+        <v>0.2581985090637803</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.4447097986468927</v>
+        <v>0.4324541431542533</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.4971744298147705</v>
+        <v>0.5048993328009695</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.3619571821670481</v>
+        <v>0.4533429014703805</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.4564377897344247</v>
+        <v>0.249999237204299</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.5485227212690192</v>
+        <v>0.4634353458123089</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.4638155353166898</v>
+        <v>0.5092292650005572</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.4396457105913426</v>
+        <v>0.4750268071738702</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.453260908773483</v>
+        <v>0.2425336589563402</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.483016646710315</v>
+        <v>0.4531257637980128</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.4604615133378677</v>
+        <v>0.5104692856062242</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.4573781638514024</v>
+        <v>0.459269886600067</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.4748977948616626</v>
+        <v>0.2356984747445359</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.4477973465651483</v>
+        <v>0.4749362845134747</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.4816354955201631</v>
+        <v>0.5104692943921735</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.4648379414421013</v>
+        <v>0.4772519701181446</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.4691824112363037</v>
+        <v>0.229407147127525</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.4622201136031531</v>
+        <v>0.4577799883070045</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.4751429745946879</v>
+        <v>0.5100335755352666</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.4469925585258042</v>
+        <v>0.4598271034472287</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.4861883230138666</v>
+        <v>0.2235910725015045</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.4633498310167057</v>
+        <v>0.4436579332884125</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.49195058640303</v>
+        <v>0.4907709060354927</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.4491219352150603</v>
+        <v>0.4799531097097458</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.4910253540510735</v>
+        <v>0.2366076961640178</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.4578907453234322</v>
+        <v>0.4593628347681109</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.4813767913701247</v>
+        <v>0.4775522518313225</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.4347026222196422</v>
+        <v>0.4600070843844776</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.4932465861108924</v>
+        <v>0.2300970040459074</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.4741840364191315</v>
+        <v>0.4432163467854627</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.5119167054740137</v>
+        <v>0.4777764414952801</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.4265510123448925</v>
+        <v>0.4447150995145658</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.4712237352325321</v>
+        <v>0.2238997533111785</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.4635984197149675</v>
+        <v>0.4550261756821856</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.4921502886848966</v>
+        <v>0.4573629802407666</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.4565595594784219</v>
+        <v>0.4669307205594093</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.459429025391934</v>
+        <v>0.2732393488466317</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.4603771148476058</v>
+        <v>0.4491464960040007</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.4945604680220959</v>
+        <v>0.4753651580042789</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.3828005822815584</v>
+        <v>0.4595335058343401</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.4054498722084556</v>
+        <v>0.3322594072738567</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.4413658263887134</v>
+        <v>0.4707142626574811</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.460954330485168</v>
+        <v>0.4612792121445184</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.3403367156445111</v>
+        <v>0.469191992071655</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.3857849979260647</v>
+        <v>0.3950602617116099</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.4705748138075989</v>
+        <v>0.4893516559789443</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.4873273260666517</v>
+        <v>0.4797469379697345</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.3330616520852384</v>
+        <v>0.4440568693299307</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.3550975224420919</v>
+        <v>0.3911147223746017</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.4565073181533438</v>
+        <v>0.4937459506449639</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.4707492188071598</v>
+        <v>0.4329366886356538</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.3298618706704679</v>
+        <v>0.4371650756903745</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.3502241252204097</v>
+        <v>0.3670226193567696</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.4419135298332139</v>
+        <v>0.4793195617022347</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.4573074470154105</v>
+        <v>0.4126629468708819</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.344646247039523</v>
+        <v>0.3737765020049395</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.3393479922782817</v>
+        <v>0.3303108204700362</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.4508203833946735</v>
+        <v>0.4469891933687656</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.4466965440482394</v>
+        <v>0.3580707050893961</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.3617879410776255</v>
+        <v>0.335939485523207</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.3240336127932927</v>
+        <v>0.2997609727863245</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.4299077949013037</v>
+        <v>0.4429676955356595</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.4386697742192764</v>
+        <v>0.31067340196133</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.3831011229964174</v>
+        <v>0.289072565195079</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.3260413429822557</v>
+        <v>0.2713213962314225</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.4719545520231516</v>
+        <v>0.4418239780198679</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.464992194187629</v>
+        <v>0.2707568779548464</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.395393955352518</v>
+        <v>0.2613467201171937</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.3161499306199018</v>
+        <v>0.2528541066031109</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.471779061232366</v>
+        <v>0.4412354480428215</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.4521688047501763</v>
+        <v>0.2460997730092681</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.2912266011367711</v>
+        <v>0.2389695400260283</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.2916480305167847</v>
+        <v>0.2324564199517068</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.4128152226437414</v>
+        <v>0.4214593402913184</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.3845687346280802</v>
+        <v>0.2264192990849194</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.2575972652449688</v>
+        <v>0.2208295535581989</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.2737950797727389</v>
+        <v>0.215634357206256</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.3793315586042945</v>
+        <v>0.4218130903969488</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.3385039794205008</v>
+        <v>0.2107882067030204</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.2434624437593768</v>
+        <v>0.2062558585867387</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.264272745669185</v>
+        <v>0.2043583498312956</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.3655154914326789</v>
+        <v>0.4170642734991371</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.3112976058245728</v>
+        <v>0.1982961236814201</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.2391341325528308</v>
+        <v>0.1945088202317963</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.266159984047901</v>
+        <v>0.1909305480923921</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.3656410745755573</v>
+        <v>0.3964408452329338</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.2962383118293863</v>
+        <v>0.187515064916833</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.238454481792687</v>
+        <v>0.1843028390039596</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.2856232929076011</v>
+        <v>0.1812502329632646</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.3735879894469589</v>
+        <v>0.3633462519421548</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.2840062897728906</v>
+        <v>0.1782824741909786</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.2538119786063004</v>
+        <v>0.1797037465871911</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.2904722507796458</v>
+        <v>0.1730887564982196</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.3499634618000908</v>
+        <v>0.3703219151041731</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.2810107581316105</v>
+        <v>0.1704185042969623</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.2580042165493182</v>
+        <v>0.1679964484329555</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.3118050166974589</v>
+        <v>0.1656748111538577</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.3637135598480796</v>
+        <v>0.3277363402158271</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.2803491332019311</v>
+        <v>0.163220945101719</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.2839972816320772</v>
+        <v>0.1728552310779046</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.3063996528447839</v>
+        <v>0.1703293308527616</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.3770502385374456</v>
+        <v>0.3322278360300922</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.2726244632172681</v>
+        <v>0.1691506001475185</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.2860906730814767</v>
+        <v>0.1830235445375111</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.3005728248515883</v>
+        <v>0.1800330428869048</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.3874280002331555</v>
+        <v>0.2759413354360593</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.2769439075928292</v>
+        <v>0.1743663515265458</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.2702985999585565</v>
+        <v>0.1717746180522854</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.3084303907314114</v>
+        <v>0.1899653631070251</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.3938922420764218</v>
+        <v>0.267341723567718</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.2797488716323507</v>
+        <v>0.1635563226898124</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.3013666669238281</v>
+        <v>0.1798525184056776</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.3010370261912793</v>
+        <v>0.1770123992036068</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.3677985895782406</v>
+        <v>0.2345849941025969</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.289913032921248</v>
+        <v>0.1706718999994608</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.2953142523573512</v>
+        <v>0.1682391775905917</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.295831447629024</v>
+        <v>0.1659076016539054</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.3707782110671661</v>
+        <v>0.1824980023260817</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.2719034043692951</v>
+        <v>0.1611077025387783</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.2699712578282926</v>
+        <v>0.15905671249333</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.3165330068791622</v>
+        <v>0.1570821102503917</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.3724348263119496</v>
+        <v>0.1732591902598359</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.2797573419623307</v>
+        <v>0.1529961844131811</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.294856203020113</v>
+        <v>0.1512363654779943</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.3053366032143472</v>
+        <v>0.1670646822024582</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.3488243711453529</v>
+        <v>0.1647809395901876</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.29105416810747</v>
+        <v>0.1457139770718914</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.2855204723749221</v>
+        <v>0.1441912426745683</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.2956194144570906</v>
+        <v>0.1594390952294039</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.3520403819503792</v>
+        <v>0.1574503950372779</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.2882207266126023</v>
+        <v>0.1394001136128216</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.2769218241617766</v>
+        <v>0.1541386676027956</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.2824240856998076</v>
+        <v>0.1523395932598912</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.3316277801295965</v>
+        <v>0.1506020785211497</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.2764801158741736</v>
+        <v>0.1489226909332366</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.2979829845093829</v>
+        <v>0.1472982601448581</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.2782076433610959</v>
+        <v>0.1457258527232886</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.3144527633902613</v>
+        <v>0.14420274986648</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.2844410286859047</v>
+        <v>0.1427264276253761</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.2700105022426023</v>
+        <v>0.1412945393093072</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.291089794949275</v>
+        <v>0.1399048997944079</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.299434241423398</v>
+        <v>0.138555471497776</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.2899702466308541</v>
+        <v>0.1372443518113656</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.2613731748982268</v>
+        <v>0.1359697618191787</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.2855604440346136</v>
+        <v>0.1347300361473321</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.3073414125970932</v>
+        <v>0.13352361381266</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.268231667929999</v>
+        <v>0.1323490299579948</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.2522753825271738</v>
+        <v>0.1312049083724283</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.2888392381746914</v>
+        <v>0.1300899547117693</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.2846537634968695</v>
+        <v>0.1290029503413131</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.2698137468233861</v>
+        <v>0.1279427467359448</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.2567556463597111</v>
+        <v>0.1442386572767554</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.2972179424249863</v>
+        <v>0.125681799978722</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.2719875096480878</v>
+        <v>0.1247007774065683</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.258659902718447</v>
+        <v>0.1407049462358915</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.2503956417729329</v>
+        <v>0.1393324621963723</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.3096890157897177</v>
+        <v>0.121506089864866</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.2610494982130582</v>
+        <v>0.1370626983872568</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.2488103165628446</v>
+        <v>0.1357931161104602</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.2417530037183635</v>
+        <v>0.1185553361428991</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.2927989304297057</v>
+        <v>0.1336911024262712</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.2514637800971343</v>
+        <v>0.1167620628210171</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.248131358291649</v>
+        <v>0.1159741791222656</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.2374371152833991</v>
+        <v>0.1152020325374295</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.3071872919962284</v>
+        <v>0.1300819769127775</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.242351368958986</v>
+        <v>0.1135568351177795</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.2390523410107044</v>
+        <v>0.1128316744401615</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.2389274298871651</v>
+        <v>0.1274927481114664</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.2836712425625877</v>
+        <v>0.1264690519049411</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.2342900250915876</v>
+        <v>0.1104735758295238</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.2355394052038745</v>
+        <v>0.1247739743840181</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.2456426397635708</v>
+        <v>0.1090261866655558</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.2600772589893753</v>
+        <v>0.1083839255083791</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.2445789685611819</v>
+        <v>0.1077528827105228</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.2273949050354393</v>
+        <v>0.107132735444624</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.227952444748999</v>
+        <v>0.1212149764605381</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.2739939858293514</v>
+        <v>0.1058129769958956</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.2363070169656171</v>
+        <v>0.1197260187467022</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.2210391242768567</v>
+        <v>0.1045425409481515</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.2371726525240564</v>
+        <v>0.1182917531700657</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.2494990858990384</v>
+        <v>0.1174727141533098</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.2283118965589047</v>
+        <v>0.1166704557018298</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.2138435327038249</v>
+        <v>0.1158844125290102</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.249792491157753</v>
+        <v>0.1151140456537409</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.2273711180685593</v>
+        <v>0.1143588408471474</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.2211722459570165</v>
+        <v>0.1136183071902898</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.2053257795030758</v>
+        <v>0.1128919757331981</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.2368665085510382</v>
+        <v>0.1121793982459309</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.2401167473967416</v>
+        <v>0.1114801460572277</v>
       </c>
       <c r="II1" t="n">
-        <v>0.2141348204122548</v>
+        <v>0.1107938089700169</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.1990620346177617</v>
+        <v>0.1101199942502174</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.2174299580335466</v>
+        <v>0.1094583256833</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.220908677788086</v>
+        <v>0.1088084426899675</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.2078045285307781</v>
+        <v>0.1081699995016172</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.1934915120240488</v>
+        <v>0.1075426643873653</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.2014315478574267</v>
+        <v>0.1069261189286502</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.2059407151166492</v>
+        <v>0.106320057341063</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.2020657816899915</v>
+        <v>0.1057241858372235</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1843242554773796</v>
+        <v>0.1051382220269003</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.2153402798241248</v>
+        <v>0.1045618943570347</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.1976931666605876</v>
+        <v>0.1039949415800877</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.1962796738607262</v>
+        <v>0.103437112259398</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.1793424607734399</v>
+        <v>0.1028881642982157</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.199397987925738</v>
+        <v>0.1023478644992</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.1874225964491799</v>
+        <v>0.1018159881492467</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.1910054253127726</v>
+        <v>0.1012923186249249</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.1748546596120212</v>
+        <v>0.1007766470228368</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.1871167297922543</v>
+        <v>0.1002687718085031</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.1811038541854331</v>
+        <v>0.09976849848724877</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.1861696777203241</v>
+        <v>0.09927563928935236</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.1707678593574891</v>
+        <v>0.09879001287520048</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.1783702641392087</v>
+        <v>0.09831144405510753</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.1755256328782927</v>
+        <v>0.0978397635214385</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.1817180360540033</v>
+        <v>0.09737480760018717</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.1631953592885906</v>
+        <v>0.09691641801027277</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.1728560155193265</v>
+        <v>0.09646444163820878</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.1830827692979393</v>
+        <v>0.09601873032204143</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.1771046360128722</v>
+        <v>0.09557914064836613</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.1593226103883368</v>
+        <v>0.09514553375824787</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.1677790313464733</v>
+        <v>0.09471777516309163</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.1767612036727902</v>
+        <v>0.09429573456877519</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.1975964843109718</v>
+        <v>0.09387928570878842</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.167848309904645</v>
+        <v>0.09346830618583164</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.1658910651744926</v>
+        <v>0.09306267732299532</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.1719093102085776</v>
+        <v>0.0926622840153067</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.16807604606618</v>
+        <v>0.09226701459479461</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.1638906092226957</v>
+        <v>0.09187676070129541</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.1615207232480584</v>
+        <v>0.09149141715556812</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.1688877633420829</v>
+        <v>0.09111088183891315</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.1641903137621014</v>
+        <v>0.09073505558394528</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.1601774028602006</v>
+        <v>0.09036384206182074</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.1626396711956923</v>
+        <v>0.08999714767935477</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.1677553048072359</v>
+        <v>0.08963488148271748</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.1605881046748787</v>
+        <v>0.0892769550575724</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.1621968855363624</v>
+        <v>0.08892328244437513</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.165534150058481</v>
+        <v>0.08857378004619293</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.1634620562495387</v>
+        <v>0.08822836654998782</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.1567617237264156</v>
+        <v>0.1051833270619578</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.1584169002579773</v>
+        <v>0.0874528397786092</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.1614145838592231</v>
+        <v>0.08712032624143955</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.1634607433546353</v>
+        <v>0.1038997165035097</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.1532094104978999</v>
+        <v>0.08637435693740945</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.1401720834816762</v>
+        <v>0.1030018178328219</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.1649908648764304</v>
+        <v>0.08564814943071809</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.1593556822026205</v>
+        <v>0.1021273292592516</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.1501312529103202</v>
+        <v>0.1015988660024678</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.1373360876217692</v>
+        <v>0.08455229112771974</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.1680776156190554</v>
+        <v>0.08425166610081089</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.1553909069326695</v>
+        <v>0.08395422504876125</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.147240517554481</v>
+        <v>0.08365991216322376</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.134630904072261</v>
+        <v>0.09982451911088339</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.1534923742929865</v>
+        <v>0.0830020286324518</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.1552253893035144</v>
+        <v>0.08271758305900989</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.1445111239778844</v>
+        <v>0.08243604194417577</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.1320114091837907</v>
+        <v>0.09843858603702643</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.1532758819263644</v>
+        <v>0.08180718827297161</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.1515065050736827</v>
+        <v>0.09767805508373495</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.1419303760823599</v>
+        <v>0.09721538989993203</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.1294815777119284</v>
+        <v>0.08085676960236082</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.1519472573168583</v>
+        <v>0.08059374521676904</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.148049757322558</v>
+        <v>0.08033327107350581</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.1394733220117368</v>
+        <v>0.09593907605267785</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.1270094853091125</v>
+        <v>0.09550057449652695</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.148477041604605</v>
+        <v>0.09506803117419389</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.1468669936297534</v>
+        <v>0.07912252851061063</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.1371343813443682</v>
+        <v>0.09438406588903513</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.1395389430082278</v>
+        <v>0.07857016043616488</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.14529714598784</v>
+        <v>0.09371504810111494</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.1437234520445302</v>
+        <v>0.07802987329859506</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.1347157123134119</v>
+        <v>0.09306044338665986</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.1518935316017808</v>
+        <v>0.09266007878832201</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.1423045915640774</v>
+        <v>0.07721298323638658</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.1408852361923029</v>
+        <v>0.09202755684607759</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.1320581726692903</v>
+        <v>0.0767019330975051</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.1309215131406851</v>
+        <v>0.07647729789985069</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.1394348452407797</v>
+        <v>0.09117814890995592</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.1380988435326824</v>
+        <v>0.09080149306207086</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.1297407710622191</v>
+        <v>0.07571136859215225</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.1286624240759009</v>
+        <v>0.09020707821180743</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.1342763228896601</v>
+        <v>0.075231150141967</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.1330819401579683</v>
+        <v>0.07501915574521525</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.1274404096691347</v>
+        <v>0.07480894344859509</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.1445239273548299</v>
+        <v>0.07460048842369371</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.1317880365562876</v>
+        <v>0.07439376632191945</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.1306582787241152</v>
+        <v>0.07418875326559209</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.1136220595139827</v>
+        <v>0.07398542583643031</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.124405080913895</v>
-      </c>
-      <c r="MC1" t="n">
-        <v>0.124172310280973</v>
-      </c>
-      <c r="MD1" t="n">
-        <v>0.1271444628250385</v>
-      </c>
-      <c r="ME1" t="n">
-        <v>0.1113265758429898</v>
-      </c>
-      <c r="MF1" t="n">
-        <v>0.1224593747398016</v>
-      </c>
-      <c r="MG1" t="n">
-        <v>0.1219141400859923</v>
-      </c>
-      <c r="MH1" t="n">
-        <v>0.1248255585771174</v>
-      </c>
-      <c r="MI1" t="n">
-        <v>0.1091770267185644</v>
-      </c>
-      <c r="MJ1" t="n">
-        <v>0.1206289050889837</v>
-      </c>
-      <c r="MK1" t="n">
-        <v>0.1197963796863952</v>
-      </c>
-      <c r="ML1" t="n">
-        <v>0.1226496517815232</v>
-      </c>
-      <c r="MM1" t="n">
-        <v>0.1071583699638525</v>
-      </c>
-      <c r="MN1" t="n">
-        <v>0.1189018255006324</v>
-      </c>
-      <c r="MO1" t="n">
-        <v>0.1178047523009495</v>
-      </c>
-      <c r="MP1" t="n">
-        <v>0.1169957186313693</v>
-      </c>
-      <c r="MQ1" t="n">
-        <v>0.1052777788242154</v>
-      </c>
-      <c r="MR1" t="n">
-        <v>0.1431375431571002</v>
-      </c>
-      <c r="MS1" t="n">
-        <v>0.1089851137259245</v>
-      </c>
-      <c r="MT1" t="n">
-        <v>0.1190453056907378</v>
-      </c>
-      <c r="MU1" t="n">
-        <v>0.1159055024914751</v>
-      </c>
-      <c r="MV1" t="n">
-        <v>0.1151347177307498</v>
+        <v>0.08835723784057516</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Sigma1.xlsx
+++ b/Pruebas/Sigma1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MB1"/>
+  <dimension ref="A1:ZD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,1003 +444,2023 @@
         <v>0.5773502691896258</v>
       </c>
       <c r="H1" t="n">
-        <v>0.579255703344528</v>
+        <v>0.5773502691896258</v>
       </c>
       <c r="I1" t="n">
-        <v>0.4999999999835067</v>
+        <v>0.5</v>
       </c>
       <c r="J1" t="n">
-        <v>0.499999999981404</v>
+        <v>0.5</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4999999973588232</v>
+        <v>0.5</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5012360843774712</v>
+        <v>0.5</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4575948424714977</v>
+        <v>0.447213595499958</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4472135954742892</v>
+        <v>0.447213595499958</v>
       </c>
       <c r="O1" t="n">
-        <v>0.4719579114643228</v>
+        <v>0.447213595499958</v>
       </c>
       <c r="P1" t="n">
-        <v>0.4756200498733197</v>
+        <v>0.4524905912203367</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.4868187693294627</v>
+        <v>0.4082482904370986</v>
       </c>
       <c r="R1" t="n">
-        <v>0.4082482903120389</v>
+        <v>0.4082482904359606</v>
       </c>
       <c r="S1" t="n">
-        <v>0.4806264978237823</v>
+        <v>0.4082482866915486</v>
       </c>
       <c r="T1" t="n">
-        <v>0.4646577195023277</v>
+        <v>0.4122507875157886</v>
       </c>
       <c r="U1" t="n">
-        <v>0.4822218227366177</v>
+        <v>0.3779644729871022</v>
       </c>
       <c r="V1" t="n">
-        <v>0.3779644726569307</v>
+        <v>0.3779644729864491</v>
       </c>
       <c r="W1" t="n">
-        <v>0.4770054766202866</v>
+        <v>0.3858835009196123</v>
       </c>
       <c r="X1" t="n">
-        <v>0.4879804196810921</v>
+        <v>0.3889148262263933</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.5024580052664372</v>
+        <v>0.3712202327842269</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.3535533898828768</v>
+        <v>0.3535533905621233</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.4984262724175482</v>
+        <v>0.3899401805202619</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5049224668640017</v>
+        <v>0.3988444721163648</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5094289918198516</v>
+        <v>0.3927991086933203</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.3333333306460431</v>
+        <v>0.333333333258824</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.5079290954620834</v>
+        <v>0.3850428976969466</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.5122982404981425</v>
+        <v>0.3965256082020551</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.4764549434422112</v>
+        <v>0.4225518951961375</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3162277603731376</v>
+        <v>0.3162277658286195</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.5110510893693884</v>
+        <v>0.4144587279327182</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.5126318221241358</v>
+        <v>0.394400559106426</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.4838633105911925</v>
+        <v>0.3892297511202414</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3015113246318724</v>
+        <v>0.3015113443392687</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.5105130190563837</v>
+        <v>0.4131744843235828</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.5112893692408783</v>
+        <v>0.4231969348045404</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.4642819050887552</v>
+        <v>0.419338548354423</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.2886750933479784</v>
+        <v>0.2886751341859063</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.4960739389659893</v>
+        <v>0.409043984169719</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.4735125481825132</v>
+        <v>0.4449308816883435</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.4503984834466995</v>
+        <v>0.441277968236082</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.2773500239710295</v>
+        <v>0.2773500973101727</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.4291122162122794</v>
+        <v>0.4328392588787645</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.4849771804551</v>
+        <v>0.4341492938364625</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.4406013235515157</v>
+        <v>0.4037179344459607</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.2672611078622806</v>
+        <v>0.2672612409266141</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.4394168652084426</v>
+        <v>0.4242498189305931</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.4966697019426468</v>
+        <v>0.421725726534632</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.4657708911805435</v>
+        <v>0.4237670381404145</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.2581985090637803</v>
+        <v>0.258198888193886</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.4324541431542533</v>
+        <v>0.4391378527756908</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.5048993328009695</v>
+        <v>0.4358574730788592</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.4533429014703805</v>
+        <v>0.4380299068899811</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.249999237204299</v>
+        <v>0.249999997165037</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.4634353458123089</v>
+        <v>0.4259247209369317</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.5092292650005572</v>
+        <v>0.4241809990358333</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.4750268071738702</v>
+        <v>0.4273622937309513</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.2425336589563402</v>
+        <v>0.2425356195163678</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.4531257637980128</v>
+        <v>0.4375415087635585</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.5104692856062242</v>
+        <v>0.4356941022898216</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.459269886600067</v>
+        <v>0.3929797647533478</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.2356984747445359</v>
+        <v>0.2357022534094316</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.4749362845134747</v>
+        <v>0.4241042693579139</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.5104692943921735</v>
+        <v>0.42228063010849</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.4772519701181446</v>
+        <v>0.3955336753443474</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.229407147127525</v>
+        <v>0.2294157228995162</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.4577799883070045</v>
+        <v>0.467718779710575</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.5100335755352666</v>
+        <v>0.4347406193082249</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.4598271034472287</v>
+        <v>0.3678075304372366</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.2235910725015045</v>
+        <v>0.2236067843602209</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.4436579332884125</v>
+        <v>0.423667879129741</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.4907709060354927</v>
+        <v>0.3986937105167769</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.4799531097097458</v>
+        <v>0.3783452856962889</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.2366076961640178</v>
+        <v>0.2182178701374724</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.4593628347681109</v>
+        <v>0.390101456672668</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.4775522518313225</v>
+        <v>0.3941879347692701</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.4600070843844776</v>
+        <v>0.3903047012113185</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.2300970040459074</v>
+        <v>0.2132006813351102</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.4432163467854627</v>
+        <v>0.3400308823699489</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.4777764414952801</v>
+        <v>0.3887002179954637</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.4447150995145658</v>
+        <v>0.3635916311017001</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.2238997533111785</v>
+        <v>0.2085143699906974</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.4550261756821856</v>
+        <v>0.3430124429454866</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.4573629802407666</v>
+        <v>0.4104133659315977</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.4669307205594093</v>
+        <v>0.3785070108102713</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.2732393488466317</v>
+        <v>0.2041240783242086</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.4491464960040007</v>
+        <v>0.3244554363500373</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.4753651580042789</v>
+        <v>0.4059476877222442</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.4595335058343401</v>
+        <v>0.391917260681744</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.3322594072738567</v>
+        <v>0.1999998866262636</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.4707142626574811</v>
+        <v>0.34059756460367</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.4612792121445184</v>
+        <v>0.4255132426733422</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.469191992071655</v>
+        <v>0.402728930400815</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.3950602617116099</v>
+        <v>0.1961159350321431</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.4893516559789443</v>
+        <v>0.3619227302325754</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.4797469379697345</v>
+        <v>0.4162952870494409</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.4440568693299307</v>
+        <v>0.3735718270487094</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.3911147223746017</v>
+        <v>0.1924498362488864</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.4937459506449639</v>
+        <v>0.382638897210348</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.4329366886356538</v>
+        <v>0.4328565191206793</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.4371650756903745</v>
+        <v>0.3860347859237721</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.3670226193567696</v>
+        <v>0.1889818648967589</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.4793195617022347</v>
+        <v>0.3573700890046669</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.4126629468708819</v>
+        <v>0.4219452394355001</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.3737765020049395</v>
+        <v>0.3963695363683341</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.3303108204700362</v>
+        <v>0.1856947446846673</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.4469891933687656</v>
+        <v>0.3774014493704239</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.3580707050893961</v>
+        <v>0.4355791979389973</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.335939485523207</v>
+        <v>0.3684792891439934</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.2997609727863245</v>
+        <v>0.1825734246616016</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.4429676955356595</v>
+        <v>0.3931943683663499</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.31067340196133</v>
+        <v>0.4231722407795659</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.289072565195079</v>
+        <v>0.3807768064302523</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.2713213962314225</v>
+        <v>0.1796042409351042</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.4418239780198679</v>
+        <v>0.4042555796399664</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.2707568779548464</v>
+        <v>0.4356999955576131</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.2613467201171937</v>
+        <v>0.3915132782155545</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.2528541066031109</v>
+        <v>0.1767750638544217</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.4412354480428215</v>
+        <v>0.3747892262731092</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.2460997730092681</v>
+        <v>0.4229440881309442</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.2389695400260283</v>
+        <v>0.4003743797165936</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.2324564199517068</v>
+        <v>0.174075052041889</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.4214593402913184</v>
+        <v>0.3862069145853009</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.2264192990849194</v>
+        <v>0.4352703210974508</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.2208295535581989</v>
+        <v>0.3716899944872654</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.215634357206256</v>
+        <v>0.1714952015974111</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.4218130903969488</v>
+        <v>0.3947503543369391</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.2107882067030204</v>
+        <v>0.4227887301826039</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.2062558585867387</v>
+        <v>0.3830158496518329</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.2043583498312956</v>
+        <v>0.1690262788348756</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.4170642734991371</v>
+        <v>0.4008320934020483</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.1982961236814201</v>
+        <v>0.4352674003748311</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.1945088202317963</v>
+        <v>0.3928863390680013</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.1909305480923921</v>
+        <v>0.1666599913222132</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.3964408452329338</v>
+        <v>0.3720564052410268</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.187515064916833</v>
+        <v>0.4225852677043676</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.1843028390039596</v>
+        <v>0.4008976942310251</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.1812502329632646</v>
+        <v>0.1643889138913008</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.3633462519421548</v>
+        <v>0.3806706777516294</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.1782824741909786</v>
+        <v>0.4119996092354051</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.1797037465871911</v>
+        <v>0.3721080118769751</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.1730887564982196</v>
+        <v>0.1622092155314608</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.3703219151041731</v>
+        <v>0.3880134669220032</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.1704185042969623</v>
+        <v>0.4270533912069978</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.1679964484329555</v>
+        <v>0.3825693253491597</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.1656748111538577</v>
+        <v>0.1601120116075148</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.3277363402158271</v>
+        <v>0.3938733487588127</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.163220945101719</v>
+        <v>0.4169184629713826</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.1728552310779046</v>
+        <v>0.3914020410314247</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.1703293308527616</v>
+        <v>0.1580912430821456</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.3322278360300922</v>
+        <v>0.3664606278305105</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.1691506001475185</v>
+        <v>0.4141029536792539</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.1830235445375111</v>
+        <v>0.4053493228119204</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.1800330428869048</v>
+        <v>0.1561413288290525</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.2759413354360593</v>
+        <v>0.3748441145179109</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.1743663515265458</v>
+        <v>0.3825701049685462</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.1717746180522854</v>
+        <v>0.375657039291757</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.1899653631070251</v>
+        <v>0.154264758024901</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.267341723567718</v>
+        <v>0.381860762559066</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.1635563226898124</v>
+        <v>0.38903558802039</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.1798525184056776</v>
+        <v>0.382407494833002</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.1770123992036068</v>
+        <v>0.1789202495388399</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.2345849941025969</v>
+        <v>0.3566951228316457</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.1706718999994608</v>
+        <v>0.3966543413454858</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.1682391775905917</v>
+        <v>0.3878908969912918</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.1659076016539054</v>
+        <v>0.1757237515663645</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.1824980023260817</v>
+        <v>0.3654428534062295</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.1611077025387783</v>
+        <v>0.4031772812383387</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.15905671249333</v>
+        <v>0.3915842592448227</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.1570821102503917</v>
+        <v>0.1725410302521274</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.1732591902598359</v>
+        <v>0.3725137679458487</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.1529961844131811</v>
+        <v>0.3737190323840324</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.1512363654779943</v>
+        <v>0.3646124859238593</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.1670646822024582</v>
+        <v>0.1696614036249876</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.1647809395901876</v>
+        <v>0.3773946261573397</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.1457139770718914</v>
+        <v>0.3826211400296894</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.1441912426745683</v>
+        <v>0.3703189805632609</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.1594390952294039</v>
+        <v>0.1667538106741874</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.1574503950372779</v>
+        <v>0.3530331886253428</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.1394001136128216</v>
+        <v>0.3891868489191452</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.1541386676027956</v>
+        <v>0.3739338670987973</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.1523395932598912</v>
+        <v>0.1638066583337129</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.1506020785211497</v>
+        <v>0.3589839102062288</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.1489226909332366</v>
+        <v>0.3928355860139831</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.1472982601448581</v>
+        <v>0.3749524737788283</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.1457258527232886</v>
+        <v>0.1608175411747501</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.14420274986648</v>
+        <v>0.362855662408131</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.1427264276253761</v>
+        <v>0.3653746217763683</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.1412945393093072</v>
+        <v>0.3510608158924608</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.1399048997944079</v>
+        <v>0.1581850605754152</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.138555471497776</v>
+        <v>0.341067638159028</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.1372443518113656</v>
+        <v>0.3702680046391008</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.1359697618191787</v>
+        <v>0.3526943526132506</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.1347300361473321</v>
+        <v>0.1554719881311673</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.13352361381266</v>
+        <v>0.3455590675859778</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.1323490299579948</v>
+        <v>0.3724814243324749</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.1312049083724283</v>
+        <v>0.3601916514465255</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.1300899547117693</v>
+        <v>0.1667485186699466</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.1290029503413131</v>
+        <v>0.3668277645562096</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.1279427467359448</v>
+        <v>0.37588847474843</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.1442386572767554</v>
+        <v>0.3523089155285267</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.125681799978722</v>
+        <v>0.1614603577396821</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.1247007774065683</v>
+        <v>0.3443854524965231</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.1407049462358915</v>
+        <v>0.3510703690377732</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.1393324621963723</v>
+        <v>0.3312049371592982</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.121506089864866</v>
+        <v>0.1929674565314491</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.1370626983872568</v>
+        <v>0.3456523952825118</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.1357931161104602</v>
+        <v>0.3481262896294922</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.1185553361428991</v>
+        <v>0.323575522118424</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.1336911024262712</v>
+        <v>0.1851443117022087</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.1167620628210171</v>
+        <v>0.3266811905930696</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.1159741791222656</v>
+        <v>0.3425738087139528</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.1152020325374295</v>
+        <v>0.3129759793091883</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.1300819769127775</v>
+        <v>0.1774797695825411</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.1135568351177795</v>
+        <v>0.3288277648452829</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.1128316744401615</v>
+        <v>0.3341246238122548</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.1274927481114664</v>
+        <v>0.2975176907853586</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.1264690519049411</v>
+        <v>0.1704498852797014</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.1104735758295238</v>
+        <v>0.3123608024299218</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.1247739743840181</v>
+        <v>0.3153993257589866</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.1090261866655558</v>
+        <v>0.2856395783695473</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.1083839255083791</v>
+        <v>0.1643429098422244</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.1077528827105228</v>
+        <v>0.3149854969669172</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.107132735444624</v>
+        <v>0.3064319500745004</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.1212149764605381</v>
+        <v>0.2701995392663164</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.1058129769958956</v>
+        <v>0.1582925564395238</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.1197260187467022</v>
+        <v>0.3004225350025944</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.1045425409481515</v>
+        <v>0.2942725843342705</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.1182917531700657</v>
+        <v>0.2509368282865606</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.1174727141533098</v>
+        <v>0.152403003495718</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.1166704557018298</v>
+        <v>0.3031873932426178</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.1158844125290102</v>
+        <v>0.280793813482357</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.1151140456537409</v>
+        <v>0.2422079912205583</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.1143588408471474</v>
+        <v>0.1474178860059051</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.1136183071902898</v>
+        <v>0.3044870096927124</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.1128919757331981</v>
+        <v>0.2668887340439477</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.1121793982459309</v>
+        <v>0.2202051185656575</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.1114801460572277</v>
+        <v>0.1425298311190304</v>
       </c>
       <c r="II1" t="n">
-        <v>0.1107938089700169</v>
+        <v>0.2912722202234692</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.1101199942502174</v>
+        <v>0.249431022506898</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.1094583256833</v>
+        <v>0.1948269174712498</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.1088084426899675</v>
+        <v>0.1378421123761067</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.1081699995016172</v>
+        <v>0.2921201863174323</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.1075426643873653</v>
+        <v>0.2282355977159067</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.1069261189286502</v>
+        <v>0.1674660595809723</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.106320057341063</v>
+        <v>0.1334477272410313</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.1057241858372235</v>
+        <v>0.2803906114285902</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1051382220269003</v>
+        <v>0.2207764197439133</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.1045618943570347</v>
+        <v>0.1633483451632847</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.1039949415800877</v>
+        <v>0.1295341278042911</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.103437112259398</v>
+        <v>0.2699705311908158</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.1028881642982157</v>
+        <v>0.196873390829845</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.1023478644992</v>
+        <v>0.138099997632722</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.1018159881492467</v>
+        <v>0.1259089942764486</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.1012923186249249</v>
+        <v>0.2713074952718823</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.1007766470228368</v>
+        <v>0.1700331607019437</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.1002687718085031</v>
+        <v>0.1348140496553992</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.09976849848724877</v>
+        <v>0.1226494776846482</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.09927563928935236</v>
+        <v>0.2618364357326576</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.09879001287520048</v>
+        <v>0.1680415644684152</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.09831144405510753</v>
+        <v>0.1314516006357746</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.0978397635214385</v>
+        <v>0.1303303997554396</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.09737480760018717</v>
+        <v>0.2628724429533197</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.09691641801027277</v>
+        <v>0.1435439174721688</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.09646444163820878</v>
+        <v>0.1280643316556565</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.09601873032204143</v>
+        <v>0.1270269171146963</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.09557914064836613</v>
+        <v>0.2818821634166326</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.09514553375824787</v>
+        <v>0.1400735662389243</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.09471777516309163</v>
+        <v>0.1249313471216369</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.09429573456877519</v>
+        <v>0.1239676590489334</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.09387928570878842</v>
+        <v>0.2535450351351707</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.09346830618583164</v>
+        <v>0.1368570470510793</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.09306267732299532</v>
+        <v>0.1220220425996005</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.0926622840153067</v>
+        <v>0.1211236464518652</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.09226701459479461</v>
+        <v>0.2457658774439727</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.09187676070129541</v>
+        <v>0.133865248384792</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.09149141715556812</v>
+        <v>0.1193113925348369</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.09111088183891315</v>
+        <v>0.1184711415609552</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.09073505558394528</v>
+        <v>0.2386616489992268</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.09036384206182074</v>
+        <v>0.1310733412748713</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.08999714767935477</v>
+        <v>0.1167778159553163</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.08963488148271748</v>
+        <v>0.1159896154659732</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.0892769550575724</v>
+        <v>0.2397665152404317</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.08892328244437513</v>
+        <v>0.1284606404598725</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.08857378004619293</v>
+        <v>0.1144027891797958</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.08822836654998782</v>
+        <v>0.113661406953315</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.1051833270619578</v>
+        <v>0.2331569258554016</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.0874528397786092</v>
+        <v>0.1260084681930577</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.08712032624143955</v>
+        <v>0.1121705650036354</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.1038997165035097</v>
+        <v>0.1114714769564263</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.08637435693740945</v>
+        <v>0.2270655441903369</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.1030018178328219</v>
+        <v>0.1237011616143188</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.08564814943071809</v>
+        <v>0.1100674210387357</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.1021273292592516</v>
+        <v>0.1094066940224621</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.1015988660024678</v>
+        <v>0.2286771327823064</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.08455229112771974</v>
+        <v>0.1215256372336279</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.08425166610081089</v>
+        <v>0.1080814534745526</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.08395422504876125</v>
+        <v>0.1074556487833708</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.08365991216322376</v>
+        <v>0.222922198427739</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.09982451911088339</v>
+        <v>0.1194694034576709</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.0830020286324518</v>
+        <v>0.1062021537329304</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.08271758305900989</v>
+        <v>0.1056082513596108</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.08243604194417577</v>
+        <v>0.224807171889452</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.09843858603702643</v>
+        <v>0.117522209144721</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.08180718827297161</v>
+        <v>0.1044204516286702</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.09767805508373495</v>
+        <v>0.10385578412798</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.09721538989993203</v>
+        <v>0.219332914335822</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.08085676960236082</v>
+        <v>0.1156746510444985</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.08059374521676904</v>
+        <v>0.1027280837363959</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.08033327107350581</v>
+        <v>0.1021902887752479</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.09593907605267785</v>
+        <v>0.2142400344399895</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.09550057449652695</v>
+        <v>0.1139185945680791</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.09506803117419389</v>
+        <v>0.1011178539256135</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.07912252851061063</v>
+        <v>0.1006048288356209</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.09438406588903513</v>
+        <v>0.2166640594540637</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.07857016043616488</v>
+        <v>0.1122461584536443</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.09371504810111494</v>
+        <v>0.09958346634084751</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.07802987329859506</v>
+        <v>0.0990933308155951</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.09306044338665986</v>
+        <v>0.2117505556323831</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.09266007878832201</v>
+        <v>0.1106515840634214</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.07721298323638658</v>
+        <v>0.09811905375863256</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.09202755684607759</v>
+        <v>0.09765012379656553</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.0767019330975051</v>
+        <v>0.2071568604382523</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.07647729789985069</v>
+        <v>0.1091290715725944</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.09117814890995592</v>
+        <v>0.09671947627057051</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.09080149306207086</v>
+        <v>0.09627023691775202</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.07571136859215225</v>
+        <v>0.2028497214926432</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.09020707821180743</v>
+        <v>0.1076734065537039</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.075231150141967</v>
+        <v>0.09538010678153229</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.07501915574521525</v>
+        <v>0.09494919090031612</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.07480894344859509</v>
+        <v>0.1988005338785818</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.07460048842369371</v>
+        <v>0.1062798861871176</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.07439376632191945</v>
+        <v>0.09409676707499509</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.07418875326559209</v>
+        <v>0.0936829372838084</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.07398542583643031</v>
+        <v>0.1949845370305696</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.08835723784057516</v>
+        <v>0.1049442565352994</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>0.0928656733574324</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>0.0924678065987406</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>0.1913801749834087</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>0.1036626589658022</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>0.09168338966394801</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>0.09130046395747546</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>0.1952987109567015</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>0.1024301064098453</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>0.09054683143459823</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>0.09017791393000381</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>0.1916765838593862</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>0.1012450193619904</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>0.08945309873885696</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>0.08909733694035292</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>0.1882488100915733</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>0.1001044560785964</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>0.08839957937959979</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>0.08805619199907147</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>0.1849986075516672</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>0.09900572327052713</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>0.08738387863841826</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>0.08705214811499321</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>0.181911155301108</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>0.09794634972420926</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>0.08640379653810229</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>0.08608306249743115</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>0.1789733084052415</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>0.09692406327719758</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>0.08545730794501991</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>0.08514696146180248</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>0.1845564390243822</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>0.09593454676953311</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>0.08454252679123435</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>0.08424200553333101</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>0.1814897724212244</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>0.09497829731738743</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>0.08365775699576007</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>0.08336654025539417</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>0.1785711012679331</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>0.09405350461201363</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>0.08280139873339584</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>0.08251900383532783</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>0.175788891083512</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>0.09315849342803545</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>0.0819719690315262</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>0.08169794782850519</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>0.2036061373243924</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>0.09229219488346344</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>0.08116807501943896</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>0.08090201092894909</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>0.1995118330974045</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>0.09145269460534265</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>0.0803884564120953</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>0.08012996127692359</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>0.1671138214810739</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>0.09063813481977544</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>0.07963193174044504</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>0.07938064344498155</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>0.1933430664734322</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>0.08984827339074973</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>0.0788973634835891</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>0.07865294407247361</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>0.1621937378284328</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>0.08908093248446051</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>0.07818373476028855</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>0.0779458679954643</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>0.1696544532782714</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>0.08833320187382827</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>0.07749001145744978</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>0.07725840178825764</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>0.1950123124656251</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>0.08760758456946752</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>0.07681531924062414</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>0.07658968928656543</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>0.1554733531786701</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>0.08690321308328487</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>0.07615890196605508</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>0.07593899054227071</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>0.1536268796179859</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>0.08621791271144193</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>0.07551987873678631</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>0.07530544109278298</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>0.1609080796192655</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>0.08554885517434903</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>0.07489747211156848</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>0.07468827822404263</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>0.1857406558184046</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>0.08489834405601009</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>0.07429098561622181</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>0.07408681878192105</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>0.156567453100914</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>0.08426369706958137</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>0.07369980244188612</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>0.07350045798639801</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>0.1546814803064841</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>0.08364517924549793</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>0.07312326774332181</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>0.07292855274968604</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>0.1528620848462893</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>0.08304212209731893</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>0.07256078839283087</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>0.07237052065024216</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>0.1511054388016077</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>0.08245389531031201</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>0.07201180432207642</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>0.07182581158130398</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>0.1756306396147793</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>0.08188077587736851</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>0.07147576933638533</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>0.07129388874250078</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>0.1475134063510497</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>0.08132043840362471</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>0.07095221755868518</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>0.07077429461889204</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>0.1459329552053558</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>0.08077324335821523</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>0.07044065681837657</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>0.07026654523419658</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>0.1699849768332203</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>0.08023951792783167</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>0.06994062471887541</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>0.06977018580437482</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>0.1675805314793564</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>0.0797179325589991</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>0.0694517106683633</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>0.06928481264869128</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>0.1410870060319667</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>0.07920721362608062</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>0.06897352049626877</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>0.06881003810332878</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>0.1397023853181477</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>0.07870777801705915</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>0.06850565738284795</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>0.0683454715945371</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>0.1383577594891855</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>0.07821921852409285</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>0.06804775617415991</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>0.06789075374203479</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>0.137051239113012</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>0.07774114815229023</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>0.06759946950630366</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>0.06744554260293689</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>0.1357810574216508</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>0.07727319884561994</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>0.06716046671538493</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>0.06700951259388196</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>0.1345455602575701</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>0.07681502030728064</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>0.06673043280653493</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>0.06658235350336086</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>0.1443550927841517</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>0.07636482815672263</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>0.06630904124617296</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>0.06616374346783614</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>0.1320487248667261</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>0.07592524303022279</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>0.06589606081284767</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>0.06575345513942715</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>0.1309115357480592</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>0.07549447221277336</v>
+      </c>
+      <c r="SG1" t="n">
+        <v>0.06549118904454887</v>
+      </c>
+      <c r="SH1" t="n">
+        <v>0.06535119024212624</v>
+      </c>
+      <c r="SI1" t="n">
+        <v>0.1298032378637723</v>
+      </c>
+      <c r="SJ1" t="n">
+        <v>0.0750722264364892</v>
+      </c>
+      <c r="SK1" t="n">
+        <v>0.06509416489572878</v>
+      </c>
+      <c r="SL1" t="n">
+        <v>0.06495669148955674</v>
+      </c>
+      <c r="SM1" t="n">
+        <v>0.1287226280340643</v>
+      </c>
+      <c r="SN1" t="n">
+        <v>0.07465822948479904</v>
+      </c>
+      <c r="SO1" t="n">
+        <v>0.06470473890288576</v>
+      </c>
+      <c r="SP1" t="n">
+        <v>0.06456971297154147</v>
+      </c>
+      <c r="SQ1" t="n">
+        <v>0.1276685720874144</v>
+      </c>
+      <c r="SR1" t="n">
+        <v>0.07425221743474755</v>
+      </c>
+      <c r="SS1" t="n">
+        <v>0.0643226725482204</v>
+      </c>
+      <c r="ST1" t="n">
+        <v>0.06419001952291219</v>
+      </c>
+      <c r="SU1" t="n">
+        <v>0.1266399998541858</v>
+      </c>
+      <c r="SV1" t="n">
+        <v>0.07385393798888172</v>
+      </c>
+      <c r="SW1" t="n">
+        <v>0.06394773763114067</v>
+      </c>
+      <c r="SX1" t="n">
+        <v>0.0638173861190828</v>
+      </c>
+      <c r="SY1" t="n">
+        <v>0.1256359005954788</v>
+      </c>
+      <c r="SZ1" t="n">
+        <v>0.07346314979420264</v>
+      </c>
+      <c r="TA1" t="n">
+        <v>0.06357971571488165</v>
+      </c>
+      <c r="TB1" t="n">
+        <v>0.0634515973181983</v>
+      </c>
+      <c r="TC1" t="n">
+        <v>0.1601763376332217</v>
+      </c>
+      <c r="TD1" t="n">
+        <v>0.07307952611594611</v>
+      </c>
+      <c r="TE1" t="n">
+        <v>0.06321836199083398</v>
+      </c>
+      <c r="TF1" t="n">
+        <v>0.06309241136246543</v>
+      </c>
+      <c r="TG1" t="n">
+        <v>0.1234718704696836</v>
+      </c>
+      <c r="TH1" t="n">
+        <v>0.07270304619207178</v>
+      </c>
+      <c r="TI1" t="n">
+        <v>0.06286354912681671</v>
+      </c>
+      <c r="TJ1" t="n">
+        <v>0.06273970317271432</v>
+      </c>
+      <c r="TK1" t="n">
+        <v>0.122540729611772</v>
+      </c>
+      <c r="TL1" t="n">
+        <v>0.07233339286985421</v>
+      </c>
+      <c r="TM1" t="n">
+        <v>0.06251504727847269</v>
+      </c>
+      <c r="TN1" t="n">
+        <v>0.06239324567501974</v>
+      </c>
+      <c r="TO1" t="n">
+        <v>0.1216303473011572</v>
+      </c>
+      <c r="TP1" t="n">
+        <v>0.07197036301833573</v>
+      </c>
+      <c r="TQ1" t="n">
+        <v>0.06217267208948413</v>
+      </c>
+      <c r="TR1" t="n">
+        <v>0.06205285693133205</v>
+      </c>
+      <c r="TS1" t="n">
+        <v>0.1455988273731081</v>
+      </c>
+      <c r="TT1" t="n">
+        <v>0.07161432022175958</v>
+      </c>
+      <c r="TU1" t="n">
+        <v>0.06183624844733988</v>
+      </c>
+      <c r="TV1" t="n">
+        <v>0.06171836410795089</v>
+      </c>
+      <c r="TW1" t="n">
+        <v>0.1197743644593265</v>
+      </c>
+      <c r="TX1" t="n">
+        <v>0.07126394974401315</v>
+      </c>
+      <c r="TY1" t="n">
+        <v>0.06150560324250766</v>
+      </c>
+      <c r="TZ1" t="n">
+        <v>0.06138959629209775</v>
+      </c>
+      <c r="UA1" t="n">
+        <v>0.1189238414509422</v>
+      </c>
+      <c r="UB1" t="n">
+        <v>0.0709196418100736</v>
+      </c>
+      <c r="UC1" t="n">
+        <v>0.0611805747076735</v>
+      </c>
+      <c r="UD1" t="n">
+        <v>0.0610663937818013</v>
+      </c>
+      <c r="UE1" t="n">
+        <v>0.1425577686441685</v>
+      </c>
+      <c r="UF1" t="n">
+        <v>0.07058175660780247</v>
+      </c>
+      <c r="UG1" t="n">
+        <v>0.060861009196311</v>
+      </c>
+      <c r="UH1" t="n">
+        <v>0.06074860487733481</v>
+      </c>
+      <c r="UI1" t="n">
+        <v>0.1171963853237684</v>
+      </c>
+      <c r="UJ1" t="n">
+        <v>0.07024905304167627</v>
+      </c>
+      <c r="UK1" t="n">
+        <v>0.06054674992814895</v>
+      </c>
+      <c r="UL1" t="n">
+        <v>0.06043607469346289</v>
+      </c>
+      <c r="UM1" t="n">
+        <v>0.1404172275204307</v>
+      </c>
+      <c r="UN1" t="n">
+        <v>0.06992243325356676</v>
+      </c>
+      <c r="UO1" t="n">
+        <v>0.06023765878946424</v>
+      </c>
+      <c r="UP1" t="n">
+        <v>0.06012866686691816</v>
+      </c>
+      <c r="UQ1" t="n">
+        <v>0.1155506770004173</v>
+      </c>
+      <c r="UR1" t="n">
+        <v>0.06960069769620027</v>
+      </c>
+      <c r="US1" t="n">
+        <v>0.05993358834816805</v>
+      </c>
+      <c r="UT1" t="n">
+        <v>0.05982623569926473</v>
+      </c>
+      <c r="UU1" t="n">
+        <v>0.1147864402412661</v>
+      </c>
+      <c r="UV1" t="n">
+        <v>0.0692842274074749</v>
+      </c>
+      <c r="UW1" t="n">
+        <v>0.05963440803181905</v>
+      </c>
+      <c r="UX1" t="n">
+        <v>0.05952865221170674</v>
+      </c>
+      <c r="UY1" t="n">
+        <v>0.1377115363855398</v>
+      </c>
+      <c r="UZ1" t="n">
+        <v>0.06897337538829809</v>
+      </c>
+      <c r="VA1" t="n">
+        <v>0.05933999367463546</v>
+      </c>
+      <c r="VB1" t="n">
+        <v>0.05923579375169379</v>
+      </c>
+      <c r="VC1" t="n">
+        <v>0.1132468287122123</v>
+      </c>
+      <c r="VD1" t="n">
+        <v>0.06866700602513011</v>
+      </c>
+      <c r="VE1" t="n">
+        <v>0.05905021043713636</v>
+      </c>
+      <c r="VF1" t="n">
+        <v>0.05894752699997909</v>
+      </c>
+      <c r="VG1" t="n">
+        <v>0.1125271216539309</v>
+      </c>
+      <c r="VH1" t="n">
+        <v>0.06836549210387048</v>
+      </c>
+      <c r="VI1" t="n">
+        <v>0.05876494311144257</v>
+      </c>
+      <c r="VJ1" t="n">
+        <v>0.05866373812220367</v>
+      </c>
+      <c r="VK1" t="n">
+        <v>0.1118209672333532</v>
+      </c>
+      <c r="VL1" t="n">
+        <v>0.06806870679090912</v>
+      </c>
+      <c r="VM1" t="n">
+        <v>0.0584840758512012</v>
+      </c>
+      <c r="VN1" t="n">
+        <v>0.05838431261192153</v>
+      </c>
+      <c r="VO1" t="n">
+        <v>0.1111279453247769</v>
+      </c>
+      <c r="VP1" t="n">
+        <v>0.06777652781173489</v>
+      </c>
+      <c r="VQ1" t="n">
+        <v>0.05820749691501116</v>
+      </c>
+      <c r="VR1" t="n">
+        <v>0.05810913999840643</v>
+      </c>
+      <c r="VS1" t="n">
+        <v>0.1104476538134104</v>
+      </c>
+      <c r="VT1" t="n">
+        <v>0.06748883723446114</v>
+      </c>
+      <c r="VU1" t="n">
+        <v>0.05793509847539856</v>
+      </c>
+      <c r="VV1" t="n">
+        <v>0.0578381136833228</v>
+      </c>
+      <c r="VW1" t="n">
+        <v>0.1097797076168895</v>
+      </c>
+      <c r="VX1" t="n">
+        <v>0.06720552127562057</v>
+      </c>
+      <c r="VY1" t="n">
+        <v>0.05766677645753849</v>
+      </c>
+      <c r="VZ1" t="n">
+        <v>0.0575711307479802</v>
+      </c>
+      <c r="WA1" t="n">
+        <v>0.1328206528511547</v>
+      </c>
+      <c r="WB1" t="n">
+        <v>0.06692690957346024</v>
+      </c>
+      <c r="WC1" t="n">
+        <v>0.05740243744757386</v>
+      </c>
+      <c r="WD1" t="n">
+        <v>0.05730809885898464</v>
+      </c>
+      <c r="WE1" t="n">
+        <v>0.1316642816768696</v>
+      </c>
+      <c r="WF1" t="n">
+        <v>0.06665244559576793</v>
+      </c>
+      <c r="WG1" t="n">
+        <v>0.05714197791246207</v>
+      </c>
+      <c r="WH1" t="n">
+        <v>0.05704891559409231</v>
+      </c>
+      <c r="WI1" t="n">
+        <v>0.1077706781203897</v>
+      </c>
+      <c r="WJ1" t="n">
+        <v>0.06638159422057582</v>
+      </c>
+      <c r="WK1" t="n">
+        <v>0.0568852960557405</v>
+      </c>
+      <c r="WL1" t="n">
+        <v>0.05679348021588418</v>
+      </c>
+      <c r="WM1" t="n">
+        <v>0.1071498636094912</v>
+      </c>
+      <c r="WN1" t="n">
+        <v>0.06611470069006406</v>
+      </c>
+      <c r="WO1" t="n">
+        <v>0.05663230856713737</v>
+      </c>
+      <c r="WP1" t="n">
+        <v>0.0565417103446251</v>
+      </c>
+      <c r="WQ1" t="n">
+        <v>0.1065396578804986</v>
+      </c>
+      <c r="WR1" t="n">
+        <v>0.06585166938775476</v>
+      </c>
+      <c r="WS1" t="n">
+        <v>0.05638292777708237</v>
+      </c>
+      <c r="WT1" t="n">
+        <v>0.05629351925648991</v>
+      </c>
+      <c r="WU1" t="n">
+        <v>0.1059397621544601</v>
+      </c>
+      <c r="WV1" t="n">
+        <v>0.06559240786920129</v>
+      </c>
+      <c r="WW1" t="n">
+        <v>0.05613706890140358</v>
+      </c>
+      <c r="WX1" t="n">
+        <v>0.05604882306496232</v>
+      </c>
+      <c r="WY1" t="n">
+        <v>0.1053498893026873</v>
+      </c>
+      <c r="WZ1" t="n">
+        <v>0.06533682673432627</v>
+      </c>
+      <c r="XA1" t="n">
+        <v>0.05589464989971132</v>
+      </c>
+      <c r="XB1" t="n">
+        <v>0.05580754059532826</v>
+      </c>
+      <c r="XC1" t="n">
+        <v>0.1047697632699554</v>
+      </c>
+      <c r="XD1" t="n">
+        <v>0.06508483949596035</v>
+      </c>
+      <c r="XE1" t="n">
+        <v>0.0556555913906294</v>
+      </c>
+      <c r="XF1" t="n">
+        <v>0.05556959327987863</v>
+      </c>
+      <c r="XG1" t="n">
+        <v>0.1041991185287106</v>
+      </c>
+      <c r="XH1" t="n">
+        <v>0.06483636247344128</v>
+      </c>
+      <c r="XI1" t="n">
+        <v>0.05541981650915335</v>
+      </c>
+      <c r="XJ1" t="n">
+        <v>0.05533490506001564</v>
+      </c>
+      <c r="XK1" t="n">
+        <v>0.1036376995737761</v>
+      </c>
+      <c r="XL1" t="n">
+        <v>0.06459131465816619</v>
+      </c>
+      <c r="XM1" t="n">
+        <v>0.05518725082949213</v>
+      </c>
+      <c r="XN1" t="n">
+        <v>0.05510340226283518</v>
+      </c>
+      <c r="XO1" t="n">
+        <v>0.1030852604328946</v>
+      </c>
+      <c r="XP1" t="n">
+        <v>0.06434961760718512</v>
+      </c>
+      <c r="XQ1" t="n">
+        <v>0.05495782225293856</v>
+      </c>
+      <c r="XR1" t="n">
+        <v>0.05487501352837779</v>
+      </c>
+      <c r="XS1" t="n">
+        <v>0.1025415642234966</v>
+      </c>
+      <c r="XT1" t="n">
+        <v>0.06411119536392848</v>
+      </c>
+      <c r="XU1" t="n">
+        <v>0.05473146092879197</v>
+      </c>
+      <c r="XV1" t="n">
+        <v>0.05464966969478369</v>
+      </c>
+      <c r="XW1" t="n">
+        <v>0.112484584721048</v>
+      </c>
+      <c r="XX1" t="n">
+        <v>0.06387527683715732</v>
+      </c>
+      <c r="XY1" t="n">
+        <v>0.05450810846174594</v>
+      </c>
+      <c r="XZ1" t="n">
+        <v>0.05442731301440047</v>
+      </c>
+      <c r="YA1" t="n">
+        <v>0.1014259373895463</v>
+      </c>
+      <c r="YB1" t="n">
+        <v>0.06364319554765768</v>
+      </c>
+      <c r="YC1" t="n">
+        <v>0.05428768062436782</v>
+      </c>
+      <c r="YD1" t="n">
+        <v>0.05420785998232777</v>
+      </c>
+      <c r="YE1" t="n">
+        <v>0.1009079531168351</v>
+      </c>
+      <c r="YF1" t="n">
+        <v>0.06341417476485571</v>
+      </c>
+      <c r="YG1" t="n">
+        <v>0.0540701230248993</v>
+      </c>
+      <c r="YH1" t="n">
+        <v>0.0539912567949812</v>
+      </c>
+      <c r="YI1" t="n">
+        <v>0.1107560391055388</v>
+      </c>
+      <c r="YJ1" t="n">
+        <v>0.06318748538933061</v>
+      </c>
+      <c r="YK1" t="n">
+        <v>0.05385538348202216</v>
+      </c>
+      <c r="YL1" t="n">
+        <v>0.05377745182499533</v>
+      </c>
+      <c r="YM1" t="n">
+        <v>0.09984560019666039</v>
+      </c>
+      <c r="YN1" t="n">
+        <v>0.06296439557855119</v>
+      </c>
+      <c r="YO1" t="n">
+        <v>0.05364338298050789</v>
+      </c>
+      <c r="YP1" t="n">
+        <v>0.05356636672663095</v>
+      </c>
+      <c r="YQ1" t="n">
+        <v>0.099351343337635</v>
+      </c>
+      <c r="YR1" t="n">
+        <v>0.06274417097228374</v>
+      </c>
+      <c r="YS1" t="n">
+        <v>0.05343407292964305</v>
+      </c>
+      <c r="YT1" t="n">
+        <v>0.05335795340588304</v>
+      </c>
+      <c r="YU1" t="n">
+        <v>0.1230148695864841</v>
+      </c>
+      <c r="YV1" t="n">
+        <v>0.06252707360478152</v>
+      </c>
+      <c r="YW1" t="n">
+        <v>0.05322740688169701</v>
+      </c>
+      <c r="YX1" t="n">
+        <v>0.05315216592498414</v>
+      </c>
+      <c r="YY1" t="n">
+        <v>0.1086179346771225</v>
+      </c>
+      <c r="YZ1" t="n">
+        <v>0.0623117680287361</v>
+      </c>
+      <c r="ZA1" t="n">
+        <v>0.05302331990534911</v>
+      </c>
+      <c r="ZB1" t="n">
+        <v>0.05294893990740952</v>
+      </c>
+      <c r="ZC1" t="n">
+        <v>0.1079822564897639</v>
+      </c>
+      <c r="ZD1" t="n">
+        <v>0.06209917165143554</v>
       </c>
     </row>
   </sheetData>
